--- a/Recommendations (14).xlsx
+++ b/Recommendations (14).xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wa569\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BE703-8B05-4C1E-BA9B-A4A78B92E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SAPUI5 Export" sheetId="1" r:id="rId3"/>
+    <sheet name="SAPUI5 Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAPUI5 Export'!$A$1:$AO$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAPUI5 Export'!$A$1:$AO$188</definedName>
+    <definedName name="_IDVTrackerBlocked72_H" hidden="1">0</definedName>
+    <definedName name="_IDVTrackerEx72_H" hidden="1">0</definedName>
+    <definedName name="_IDVTrackerFreigabeDateiID72_H" hidden="1">-1</definedName>
+    <definedName name="_IDVTrackerFreigabeStatus72_H" hidden="1">0</definedName>
+    <definedName name="_IDVTrackerFreigabeVersion72_H" hidden="1">-1</definedName>
+    <definedName name="_IDVTrackerID72_H" hidden="1">-100</definedName>
+    <definedName name="_IDVTrackerMajorVersion72_H" hidden="1">1</definedName>
+    <definedName name="_IDVTrackerMinorVersion72_H" hidden="1">0</definedName>
+    <definedName name="_IDVTrackerVersion72_H" hidden="1">-1</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5926" uniqueCount="1772">
   <si>
     <t>Finding Status</t>
   </si>
@@ -184,8 +202,7 @@
 11.	Time limits (e.g., SLAs, targets, thresholds) were not established for the timeliness of breach declaration once customer impact was confirmed. (SEF-07-01) 
 The identified items were likely caused by a lack of awareness by the Microsoft process owners of financial institutions’ regulatory demands.
 External provisions require that the institution shall appropriately manage the risks associated with outsourcing and shall monitor the provision of the outsourced activities and processes in a due and proper manner. 
-In case of identified IT risks, appropriate monitoring and management processes shall be set up.  
-</t>
+In case of identified IT risks, appropriate monitoring and management processes shall be set up.</t>
   </si>
   <si>
     <t>Control Des. + Control Op. Eff.</t>
@@ -579,8 +596,7 @@
   </si>
   <si>
     <t>Group Security (ZZA) agrees with the finding and recommendation, and 
-will implement the recommendation.
-</t>
+will implement the recommendation.</t>
   </si>
   <si>
     <t>2024-056_F03</t>
@@ -700,8 +716,7 @@
 In Q3 2024, following an updated “IS Assurance Handbook and Methodology” and formal approval by LE CISO’s in September 2024, two assessments planned for H2 2024 as pilots to the new methodology were initiated by 2LoD ICT Risk Assurance (KIU) and ongoing at the time of audit. 
 As per revised methodology, effective January 2025, 
 	the “non-conformity” from H2 2024 pilot and onward assessments will be tracked via AMIT tool (Component ID: 1847878, CID5168), and 
-	for output from previous assessments - 2023 and H1 2024 – and “improvement opportunities” from new assessments an internal Excel-based tracker is adopted for monitoring and tracking purposes.
-</t>
+	for output from previous assessments - 2023 and H1 2024 – and “improvement opportunities” from new assessments an internal Excel-based tracker is adopted for monitoring and tracking purposes.</t>
   </si>
   <si>
     <t>Control Env. + Des. Eff + Op. Eff.</t>
@@ -710,8 +725,7 @@
     <t>Internal Audit recommends that Chief ICT Risk Officer/CISO (ICT): 
 	operationalises the control monitoring (as per new Target Operating Model -TOM), i.e. to check the responsibility for controls in 1LoD and completeness of controls executed by 1LoD DBAG IT.
 	completes the two new pilot assessments from H2 2024 as per new ICT Assurance methodology.
-	executes the 2025 ICT Assurance assessment cycle and planned activities as per the new methodology and perform follow-up activities (refer section 6.3).
-</t>
+	executes the 2025 ICT Assurance assessment cycle and planned activities as per the new methodology and perform follow-up activities (refer section 6.3).</t>
   </si>
   <si>
     <t>Petr Strnad, Christian Gorke</t>
@@ -767,8 +781,7 @@
 	rolls out the procedures to all DBAG Shared and Product ITs and record their approval/decision. LEs are informed/consulted and can adopt DBAG procedure at LE discretion.
 	extends the IRT target operating model with “asset based” IT Risk Management once new second/first line delineation is established.
 	includes further process and asset-based metrics and KPIs in existing reporting and committee escalation processes.
-	takes over the ICS processes co-ordination role for DBAG IT from 2LoD i.e., to provide 1LoD – Shared and Product ITs – with guidance on how to define and execute the controls/assess risks.
-</t>
+	takes over the ICS processes co-ordination role for DBAG IT from 2LoD i.e., to provide 1LoD – Shared and Product ITs – with guidance on how to define and execute the controls/assess risks.</t>
   </si>
   <si>
     <t>IT Governance, Risk and Transformation (IRT) agrees with the finding and recommendation, and will implement the recommendation.</t>
@@ -780,8 +793,7 @@
     <t>Internal Audit recommends that Group Compliance Strategy (SCG), with support of LE CCO (Chief Compliance Officer) or IT Compliance Officers, where needed: 
 	designs and executes the IT Compliance Control plans.
 	executes the planned activities for 2025 (detailed in this report’s section 6.2) and operationalises the new Target Operating Model “IT Compliance and ICT Risk – Operating Model” reflecting the new DORA requirements, i.e. rollout, adoption, focusing on design type controls and performing reviews of ICT or IS regulations (subject to decision at the LE level).
-	finalises the outsourcing service agreements.
-</t>
+	finalises the outsourcing service agreements.</t>
   </si>
   <si>
     <t>Marco Popp</t>
@@ -806,8 +818,7 @@
 	establish a LE-specific operating model to ensure oversight and controlling of ICT risks and operationalise it.
 	finalise service agreements between the LEs ECAG with ExR and EFAG respectively by end of Q2 2025.
 Further, in support and collaboration with Chief ICT Risk Officer/CISO (ICT), update the service agreements - between ECAG and DBAG, ExR and DBAG, EFAG and DBAG - with relevant ICT elements by end of Q2 2025.
-The first bullet has been adequately addressed before the issuance of the audit report.
-</t>
+The first bullet has been adequately addressed before the issuance of the audit report.</t>
   </si>
   <si>
     <t>Aleksandra Galaganova, Henning Volz, Christian Gorke, Petr Strnad</t>
@@ -859,8 +870,7 @@
 	incorporating practical examples on Corporate CoIs as part of the regular Group Compliance training
 	extending the requirement for Line Manager pre-approval of CoIs to additional groups/sub-categories of interests that do not contain private information but may impact the direct work environment
 	involving line managers in the periodic review of CoIs impacting their business line
-	assessing the technical feasibility of linking CoI related information to a specific role, ensuring the previous CoIs are retained in the event of a Line Manager change
-</t>
+	assessing the technical feasibility of linking CoI related information to a specific role, ensuring the previous CoIs are retained in the event of a Line Manager change</t>
   </si>
   <si>
     <t>CBL Luxembourg,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG,Eurex Repo GmbH,ISS-STOXX GmbH,LUXCSD</t>
@@ -1003,8 +1013,7 @@
 -	implementing automated controls for OpenShift platforms on SLZs.
 -	mitigate risks of high privileges required for installation and configuration.
 Resolution due date: 15 July 2026
-The progress of above-mentioned actions is regularly tracked by the IT Governance Council and the Secure Landing Zone Steering Committee. 
-</t>
+The progress of above-mentioned actions is regularly tracked by the IT Governance Council and the Secure Landing Zone Steering Committee.</t>
   </si>
   <si>
     <t>CBL Luxembourg,CBL Singapore Branch,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG,Eurex Repo GmbH,Group IT Audit,ISS-STOXX GmbH,ISS-STOXX GmbH,LUXCSD</t>
@@ -1023,8 +1032,7 @@
 *	high variety of container technologies potentially without sufficient operational and tools support
 *	incomplete software inventory in the asset inventory CMS (Configuration Management System), unauthorised software usage, increased risk of unknown vulnerabilities.
 *	misconfiguration of Cloud Service Provider (CSP) services based on OpenShift solution; overprivileged service principals.
-Further, it might lead to serious violation of internal and/or external provisions, such as a major breach of regulatory requirements, e.g. non-existent description/documentation of processes and/or control environment. 
-</t>
+Further, it might lead to serious violation of internal and/or external provisions, such as a major breach of regulatory requirements, e.g. non-existent description/documentation of processes and/or control environment.</t>
   </si>
   <si>
     <t>CHRISTOPH BÖHM(Deutsche Börse AG),DANIEL BESSE(CS Luxembourg),DANIEL BESSE(Clearstream Holding AG),FABRICE TOMENKO(CI Luxembourg),FRANK GAST(Eurex Repo GmbH),GARY RETELNY(ISS-STOXX GmbH),KEVIN HAYES(Clearstream Fund CentreSA),MANFRED MATUSZA(Eurex Clearing AG),MARC ROBERT-NICOUD(ISS-STOXX GmbH),MARCO CALIGARIS(LUXCSD),QUINTEN KOEKENBIER(Eurex Frankfurt AG),VOLKER RIEBESELL(Clearstream Europe AG),YANNICK GOINEAU(CBL Luxembourg),YANNICK GOINEAU(CBL Singapore Branch)</t>
@@ -1176,8 +1184,7 @@
     <t>CCP Regulation (CCD) agrees with the finding and recommendation, and will implement the recommendation.</t>
   </si>
   <si>
-    <t>Weaknesses in the MAS Reporting process increases the risk of incomplete, inaccurate or inconsistent data being reported to MAS. This may lead to material violation of internal and external provisions, such as minor breach of regulatory requirements.
-</t>
+    <t>Weaknesses in the MAS Reporting process increases the risk of incomplete, inaccurate or inconsistent data being reported to MAS. This may lead to material violation of internal and external provisions, such as minor breach of regulatory requirements.</t>
   </si>
   <si>
     <t>MATTHIAS GRAULICH(Eurex Clearing AG)</t>
@@ -1200,15 +1207,13 @@
   <si>
     <t>Internal Audit (IA) identified the annual Disaster Recovery (DR) testing (for DBG data centres in Frankfurt) did not include complete full data centre failover - at least since 2022. This was visible again in DBG’s 2024 annual DR report. Thus, critical processes and relevant IT services remained untested and might not work as expected in case of a complete DC failure. The available IT Resiliency Management procedure did not include a detailed data centre failover scenario to ensure the participation of all IT product areas and their sufficient testing.
 Further, no DR scenario had been defined at the time of the audit review   , to test the IT infrastructure and system capacity as part of a complete data centre failover, neither during dedicated testing window, nor during long lasting test exercise running at least all business-critical processes and services in a failover mode during regular business hours. 
-DORA article 25 (2) requires financial entities to test their ICT business continuity plans and assess whether they can ensure the financial entity’s critical or important functions’ continuity. Testing shall be based on test scenarios that simulate potential disruptions, including an adequate set of severe but plausible scenarios; and contain scenarios of switchover from primary ICT infrastructure to the redundant capacity, backups and redundant facilities. The Commission Delegated Regulation (EU) 2016/1075 Articles 12, 18 and 19 define similar or further operational continuity requirements, including assessing the overall recovery capacity.  
-</t>
+DORA article 25 (2) requires financial entities to test their ICT business continuity plans and assess whether they can ensure the financial entity’s critical or important functions’ continuity. Testing shall be based on test scenarios that simulate potential disruptions, including an adequate set of severe but plausible scenarios; and contain scenarios of switchover from primary ICT infrastructure to the redundant capacity, backups and redundant facilities. The Commission Delegated Regulation (EU) 2016/1075 Articles 12, 18 and 19 define similar or further operational continuity requirements, including assessing the overall recovery capacity.</t>
   </si>
   <si>
     <t>Internal Audit (IA) recommends that Networks, Data Center &amp; Virtualization (ZFI) design and implement a disaster recovery (DR) plan for full data centre failover testing.    The DR plan and its testing shall, at least annually, include all IT services to recover all business processes and sufficient capacity testing.
 The DR scenario testing shall include the following but not be limited to:
 	Data centre isolation to perform a full failover
-	Duration of the data centre isolation shall be aligned with requirements of the IT services
-</t>
+	Duration of the data centre isolation shall be aligned with requirements of the IT services</t>
   </si>
   <si>
     <t>Eric Reding</t>
@@ -1226,8 +1231,7 @@
     <t>Networks, Data Center &amp; Virtualization (ZFI) agrees with the finding and recommendation, and will implement the recommendation.</t>
   </si>
   <si>
-    <t>Inadequate Frankfurt   data centres failover and disaster recovery (DR) testing may expose the company to severe IT system and service unavailability of critical and important business functions through unknown shortcomings or unanticipated dependencies, preventing a proper and timely service restoration. Further, the secondary data centre’s full production load capabilities in case of a disaster cannot be demonstrated, which may significantly impact DR measures in case they are required. The increased geopolitical instability is also leading to additional cyberthreat and physical security threat. As a consequence of operational unavailability risk, these DR plan weaknesses may lead to major financial loss and severe regulatory fines, overall resulting in material reputational damage.    
-</t>
+    <t>Inadequate Frankfurt   data centres failover and disaster recovery (DR) testing may expose the company to severe IT system and service unavailability of critical and important business functions through unknown shortcomings or unanticipated dependencies, preventing a proper and timely service restoration. Further, the secondary data centre’s full production load capabilities in case of a disaster cannot be demonstrated, which may significantly impact DR measures in case they are required. The increased geopolitical instability is also leading to additional cyberthreat and physical security threat. As a consequence of operational unavailability risk, these DR plan weaknesses may lead to major financial loss and severe regulatory fines, overall resulting in material reputational damage.</t>
   </si>
   <si>
     <t>CHRISTOPH BÖHM(Deutsche Börse AG),DANIEL BESSE(CS Luxembourg),DANIEL BESSE(Clearstream Holding AG),FABRICE TOMENKO(CI Luxembourg),JONAS ULLMANN(Eurex Frankfurt AG),KEVIN HAYES(Clearstream Fund CentreSA),MANFRED MATUSZA(Eurex Clearing AG),MARCO CALIGARIS(LUXCSD),MATTHIAS GRAULICH(Eurex Repo GmbH),VOLKER RIEBESELL(Clearstream Europe AG),YANNICK GOINEAU(CBL Luxembourg)</t>
@@ -1268,13 +1272,11 @@
 	NTT DC video monitoring – NTT’s video monitoring covered the entry and exit doors, gates and the direct fence areas. NTT did not cover the generators, fire suppression, uninterruptible power supply (UPS), and air-conditioning systems critical areas. The auditors observed onsite that these critical infrastructure components were also left without further monitoring during maintenance activity. NTT confirmed the compliance to their common standards which would include CCTV monitoring and escorting of maintenance work, which remained in contradiction to the auditors’ observations.
 	DC pool-badge (visitor) management process – DBG’s NTT DC physical security concept for authorised staff relied on three-step authentication: electronic key (badge), unique pin-code and biometric authentication (hand scan). However, for Physical Security (FSE)-issued pool-badges, used for third-party access to secure areas, the pin-code was written directly on each badge for life-time usage. Further, these pool-badges were active permanently and under NTT custody. Therefore, the established pool-badge management process between Data Centre Management (ICV) and NTT would not prevent unauthorized badge usage. The pool-badge usage did not generate any alarm or notification, and NTT shared the usage report once per month. Regular data correlation between access requests and badge reader log data was not performed as a mitigation measure.
 	Anti-ram protection – The NTT DC area perimeter and physical barrier inspection identified a vulnerability resulting from the neighbouring area, a car park and garages close to DC rooms. The NTT DC was built very close to the neighbouring area, only leaving 3-4 metres between the building and the fence, allowing no further safeguard distance. As a result, instead of e.g. concrete barriers, pollards or rocks to stop vehicles, the only protection was a simple metal chain-link fence. IA’s interview of NTT confirmed their risk assessment did not include this area. NTT confirmed later they did not see the need for anti-ram protection in the absence of related incidents in the past and would only install such protections for DIN EN 50600 certified DCs, which DBG had not required.
-DORA article 28 and the EBA Guidelines on ICT and security risk management (EBA/GL/2019/04) ask financial institutions identify and manage their ICT and security risks. The ICT function(s) should manage all risks identified within the financial institution’s risk appetite limits and in compliance with external and internal requirements. Policies, procedures and controls shall limit physical or logical access to information assets and ICT assets.
-</t>
+DORA article 28 and the EBA Guidelines on ICT and security risk management (EBA/GL/2019/04) ask financial institutions identify and manage their ICT and security risks. The ICT function(s) should manage all risks identified within the financial institution’s risk appetite limits and in compliance with external and internal requirements. Policies, procedures and controls shall limit physical or logical access to information assets and ICT assets.</t>
   </si>
   <si>
     <t>Internal Audit (IA) recommends that Physical Security (FSE) mitigate the data centre physical security risk by:
-	setting up video monitoring for each DBG data centre suites’ aisle at the Frankfurt Seckbach and Rödelheim, Luxembourg Kirchberg and Contern locations, and include it in the existing CCTV system
-</t>
+	setting up video monitoring for each DBG data centre suites’ aisle at the Frankfurt Seckbach and Rödelheim, Luxembourg Kirchberg and Contern locations, and include it in the existing CCTV system</t>
   </si>
   <si>
     <t>Lasha Shishniashvili</t>
@@ -1299,8 +1301,7 @@
 	defining a secure procedure to manage the NTT data centre Frankfurt Rödelheim visitor badges, reducing the identified risk in liasion with Physical Security (FSE)
 	align with the NTT data centre provider on options to mitigate the data centre area’s risk of terrorism and physical attack from the unprotected neighbouring areas, and take a risk-based decision on mitigation
 	align with the NTT data centre provider on options to implement video monitoring of all critical exterior areas including generators, fire suppression systems, UPS systems, and air-conditioning systems and take a risk-based decision on mitigation
-	obtain formal risk acceptance for risks that will not be mitigated
-</t>
+	obtain formal risk acceptance for risks that will not be mitigated</t>
   </si>
   <si>
     <t>Moritz Steinbach, Dominik Matzanke, Andreas Tabbert</t>
@@ -1515,8 +1516,7 @@
 ▪ Outdated 4EP controls: Step 11 of the VAT business procedure and 
 step 12 of the CIT were still existing in the business procedure. 
 ▪ The business procedure does not mention how or where the 
-electronic submission of VAT Tax return is performed.
-</t>
+electronic submission of VAT Tax return is performed.</t>
   </si>
   <si>
     <t>Internal Audit (IA) recommends that International Taxes, Tax Reporting and M&amp;A (ZGY) review and update the description of the website where the final tax report will be filed, ensuring outdated controls are removed.
@@ -1549,8 +1549,7 @@
 negligible regulatory and/or financial impacts. Outdated or incorrect 
 procedure document could result in regulatory non-compliance, 
 operational inefficiencies, financial inaccuracies, and cause potential 
-reputational damage.
-</t>
+reputational damage.</t>
   </si>
   <si>
     <t>ARMIN BORRIES(CS Luxembourg),DMITRIJ SENKO(Eurex Clearing AG),GREGOR POTTMEYER(Deutsche Börse AG),JENS SCHULTE(Deutsche Börse AG)</t>
@@ -1812,14 +1811,12 @@
 	a new initiative is being introduced, which will result in automatic termination of the Mini-master record when the “valid until” date arrives. 
 However, this initiative does not cover scenarios where an external employee leaves before the “valid until” date. In such cases, manual termination is still required.
 Furthermore, IA identified recertification process weaknesses. Based on the “contact person” data field, SAP Mini-master sent regularly, in the middle of the month, an automated notification to the respective contact persons/ordering party (line or project managers) to recertify active external employees or initiate offboarding. If the contact person took no action, two more notifications were sent before the month end, with the line manager in copy of the final reminder. However, Purchasing (FPU) had no additional controls in place if recertification was not conducted even after these notifications. 
-In line with European, German, Luxembourg regulation and internal requirements, an entity should establish controls to identify and manage unauthorised user access to the applications.
-</t>
+In line with European, German, Luxembourg regulation and internal requirements, an entity should establish controls to identify and manage unauthorised user access to the applications.</t>
   </si>
   <si>
     <t>Internal Audit recommends that Purchasing (FPU) establish additional controls to ensure:
 	timely offboarding and termination in SAP Mini-master
-	recertification of external employees by respective line managers
-</t>
+	recertification of external employees by respective line managers</t>
   </si>
   <si>
     <t>Lars Juretzko</t>
@@ -1836,8 +1833,7 @@
   <si>
     <t>Delay in termination of external employees may:
 	lead to former external employees retaining access after leaving the organisation, potentially enabling them to still access IT systems and misuse their access rights for unauthorised activity.
-	result in a material violation of internal and external provisions related to the Information Security framework.
-</t>
+	result in a material violation of internal and external provisions related to the Information Security framework.</t>
   </si>
   <si>
     <t>ARMIN BORRIES(CS Luxembourg),DANIEL BESSE(Clearstream Holding AG),FABRICE TOMENKO(CI Luxembourg),GREGOR POTTMEYER(Deutsche Börse AG),JENS JANKA(Eurex Clearing AG),JONAS ULLMANN(Eurex Frankfurt AG),MARCO CALIGARIS(LUXCSD),MATTHIAS GRAULICH(Eurex Repo GmbH),PHILIP BROWN(CBL Luxembourg),PHILIPPE SEYLL(Clearstream Fund CentreSA),VOLKER RIEBESELL(Clearstream Europe AG)</t>
@@ -2090,15 +2086,13 @@
 	The person responsible for DBG IT Service Continuity Management Guideline was not the same in the Annual Report 2024 as in the checklist.
 	The physical security policy was removed from the Annual Report 2024, however, it was provided and also contained in the checklist.
 Moreover, SAP Governance, Risk and Compliance Internal Control System (GRC ICS) contained no risk entry related to policies/procedures not being compliant with CFTC requirements. This was despite the existence of a key control related to the certifications, as described above. Further, there was a mismatch in GRC ICS mainly between risk, control and evidence. 
-German regulation and DBG policy require that financial institutions implement an effective Internal Control System and the Supervisory Board to monitor the effectiveness of the ICS.
-</t>
+German regulation and DBG policy require that financial institutions implement an effective Internal Control System and the Supervisory Board to monitor the effectiveness of the ICS.</t>
   </si>
   <si>
     <t>Internal Audit recommends that CCP Compliance (CPC):
 	ensure strict adherence to the internally requested certification requirement, including a procedure for the handling of exceptions
 	introduce a 4EP control on the accuracy of the contents of the annual report, in particular section 2.1 DCO Core Principle compliance chart
-	in GRC ICS, include entries for the existing key control related to internal certifications and make corrections to the documented risk, control and evidence to remove the mismatch
-</t>
+	in GRC ICS, include entries for the existing key control related to internal certifications and make corrections to the documented risk, control and evidence to remove the mismatch</t>
   </si>
   <si>
     <t>Bianca Sahrholz</t>
@@ -2139,14 +2133,12 @@
 d)	A detailed vendor management review of a sample of six major ICT third parties (Google, Tata, Bottomline, Equinix, NTT and Appway) revealed that DBG had not implemented a fully aligned third-party governance, risk or control framework according to the obligations laid down in contracts, including the DORA contractual annex. As DBG works with several hundred ICT third parties plus more than ten third parties supporting CIF, DBG’s internal deadline for implementation and operationalization by December 2025 might be unfeasible in this regard. 
 e)	Although deficiencies in the operationalization of the third-party risk management frameworks were self-identified (see SII-1 below), specific support has not been received by Contract/ Business Owners. Assurance was missing that DORA third-party risk management and vendor management specific expertise were available at the Business Owners.
 A full list of supporting examples from 2025-033 and 2025-026 audits’ fieldwork is included in Appendix B. 
-A comprehensive, end-to-end governance approach for Third-parties management is a regulatory imperative. Fragmented, unaligned and siloed processes, particularly at the 1st LoD, impact 2LoD oversight and are explicitly discouraged, as they undermine the resilience, transparency, consistency and accountability that, particularly, DORA seeks to enforce across the financial sector.
-</t>
+A comprehensive, end-to-end governance approach for Third-parties management is a regulatory imperative. Fragmented, unaligned and siloed processes, particularly at the 1st LoD, impact 2LoD oversight and are explicitly discouraged, as they undermine the resilience, transparency, consistency and accountability that, particularly, DORA seeks to enforce across the financial sector.</t>
   </si>
   <si>
     <t>	Set up a project, with relevant 1LoD and 2LoD representatives, to address the weaknesses identified in the third-party lifecycle management and data governance, including details from Appendix B of the Internal Audit report 
 	Involve all relevant legal entities as appropriate.
-	Set up a project plan defining milestones and deliverables.
-</t>
+	Set up a project plan defining milestones and deliverables.</t>
   </si>
   <si>
     <t>Sascha Tangel</t>
@@ -2159,8 +2151,7 @@
   </si>
   <si>
     <t>Particularly significant deficiencies in third-party lifecycle management and data governance expose the company to critical regulatory, reputational, and operational risks. Failure to fulfill regulatory requirements constitute severe regulatory non-compliance and can lead to ad-hoc regulatory examinations, financial penalties, administrative orders, remedial measures, and operational restrictions. Penalties are determined by national supervisory authorities, with fines potentially reaching up to 2% of a company's global annual turnover. In addition, lack of accountability and poor contractual and third-party data governance may lead to underestimation of risks and financial losses. Uncoordinated relationship management and communication with third parties may result in reputational damage. 
-A limited oversight on third-party operational resilience, robustness, and compliance with internal and external requirements, may lead to security deficiencies and operational risks remaining undetected until they materialize.
-</t>
+A limited oversight on third-party operational resilience, robustness, and compliance with internal and external requirements, may lead to security deficiencies and operational risks remaining undetected until they materialize.</t>
   </si>
   <si>
     <t>Jens Schulte</t>
@@ -2181,8 +2172,7 @@
     <t>	Define and implement the Target Operating Model (TOM) for 1LoD and 2LoD third- party management that covers current overlaps, critical gaps and dependencies 
 	Define and implement the Target Operating Model (TOM) for 1LoD and 2LoD governance of third- party and contract data, considering current tools and processes. 
 	Set up a plan to ensure operationalization in DBG. 
-	Set up a plan for third-party and contract data clean up. 
-</t>
+	Set up a plan for third-party and contract data clean up.</t>
   </si>
   <si>
     <t>2025-033_F02</t>
@@ -2198,8 +2188,7 @@
 These IT components were developed and clustered as components of the IT Application Office 365 (AID551). However, they were not defined or managed as standalone IT/ ICT assets.
 IA also identified a lack of clear definition and governance for IT components as IT/ICT assets within both the 1LoD and 2LoD Frameworks. The ICT Frameworks, owned by Enterprise Architecture &amp; Digital Innovation (ENA) and ICT Risk Framework (KJU), did not address the definition, classification, registration, or treatment of IT components and IT/ICT assets.
 According to the ICT Asset Management Guideline, v1.0, all primary and secondary assets must be inventoried and subject to appropriate management controls. IA found that IT components were not defined as either primary or secondary assets, nor were they assigned any asset type classification.
-European, German, and Luxembourg regulations require an up-to-date IT Application Repository that indicates the applications in use and assigns risks and responsibilities. Additionally, clear documentation and governance structures and controls around IT applications must be implemented.
-</t>
+European, German, and Luxembourg regulations require an up-to-date IT Application Repository that indicates the applications in use and assigns risks and responsibilities. Additionally, clear documentation and governance structures and controls around IT applications must be implemented.</t>
   </si>
   <si>
     <t>Liaise with ICT Risk Framework (KJU) and define a clear Group-wide delineation between an IT Application and an IT Component, including IT Component classification requirements.</t>
@@ -2217,8 +2206,7 @@
     <t>Lack of definition, adequate classification and governance of IT Components may lead to inconsistent, inaccurate and incomplete asset categorization which may result in the following shortcomings for the whole Group of having IT components that are not designed, documented, implemented, managed, assessed, or controlled according to internal written rules. Furthermore, it may lead to a lack of corresponding controls execution, management and reporting for the IT Components considered as possible IT Application. In addition, risk assessments on component-level are not performed.  
 The components are not defined and are considered standalone applications with a dedicated Application ID (AID), lacking transparency on IT Applications in the Group. 
 Furthermore, a wrong categorization of critical production- related tools/ applications might lead to severe weaknesses in processes such as software license management, application security compliance and governance and the governance of the application portfolios 
-Not inventorying and managing IT/ICT assets correctly may result in serious adverse regulatory impact or serious reputational damage. It may also hinder existing external regulator's finding closures.
-</t>
+Not inventorying and managing IT/ICT assets correctly may result in serious adverse regulatory impact or serious reputational damage. It may also hinder existing external regulator's finding closures.</t>
   </si>
   <si>
     <t>2025-033_F02-A02</t>
@@ -2269,13 +2257,11 @@
     <t>Internal Audit (IA) identified that the ICT Risk Officer / CISO did not sufficiently monitor the risks related to ICT service providers and overall risk exposure. ICT Risk Officer / CISO did not define risk appetite thresholds or establish monitoring activities related to ICT vendor concentration risk, leading to potential non-compliance with the organization's risk appetite.
 In addition, there was a lack of ICT risk reporting mechanisms for ICT third-party risks. The ICT risk management framework did not specify how these risks should be communicated to the Chief ICT Risk Officer / CISO, and there was no evidence of these risks being incorporated into the DBAG or Group Risk reporting.
 Finally, it was not clearly defined how the existing ICT risk assessment framework, which focuses on ICT assets, considers ICT third-party service providers. The only document describing the framework specifically for ICT service providers was not reviewed by the ICT Risk Officer / CISO. Additionally, the Information Security Policy v1.7 has not been updated since December 2023 and has not been officially decommissioned from the policy database for several legal entities.
-Regulation requires ICT functions have appropriate processes and controls to ensure all risks are identified, analyzed, measured, monitored, managed, reported, and kept within the financial institution's risk appetite. The management body should set clear roles and responsibilities for effective risk management, including ICT risks.
-</t>
+Regulation requires ICT functions have appropriate processes and controls to ensure all risks are identified, analyzed, measured, monitored, managed, reported, and kept within the financial institution's risk appetite. The management body should set clear roles and responsibilities for effective risk management, including ICT risks.</t>
   </si>
   <si>
     <t>	Conducts a workshop with Ecosystem Partner Security Risk Management (EPS) and Third-Party Risk Management (ROM) to identify potential of further clarification in ICT Guidelines on how to apply existing risk assessment framework to ICT third- party service providers.
-	Perform an update of ICT Guidelines based on the conducted workshop, if necessary
-</t>
+	Perform an update of ICT Guidelines based on the conducted workshop, if necessary</t>
   </si>
   <si>
     <t>Natalia Saltanovich</t>
@@ -2308,8 +2294,7 @@
 	The concept mentioned the tests were conducted by means of ‘tabletop testing’ but did not define roles and responsibilities for conducting, reviewing, and approving tests and test results. 
 	IA’s inquiry noted ‘updated exit plan’ was considered the test outcome, with no defined success criteria or documented results.
 	No defined storage location for documenting testing activities (steps, outcomes, reviews). This hindered access to test results, analysis of testing effectiveness, and weakened the audit trail.
-As per Article 28(8) under Digital Operational Resilience Act (DORA), exit plans concerning ICT services supporting CIF’s need to be ‘sufficiently tested and reviewed periodically’.
-</t>
+As per Article 28(8) under Digital Operational Resilience Act (DORA), exit plans concerning ICT services supporting CIF’s need to be ‘sufficiently tested and reviewed periodically’.</t>
   </si>
   <si>
     <t>Create a Group-wide exit plan testing methodology that, at a minimum, defines testing steps and scenarios, allocates roles and responsibilities, specifies testing outcomes and follow-up actions, and outlines the process for documenting and storing testing results.</t>
@@ -2350,8 +2335,7 @@
   <si>
     <t>Internal Audit identified that the Prevalent (AID2040) application’s uploaded Ecosystem Partner risk assessment information and supporting evidence, as well as generated reports and profiles, were not classified and labeled. Prevalent did not support document labels such as ‘public’, ‘internal’ or ‘confidential’.
 This contradicted Prevalent’s ISO27001 certification applicability statement and confirmation that Prevalent’s ISMS meets the objective “To limit access to information and information processing facilities”.
-European regulation requires information be classified and labeled.
-</t>
+European regulation requires information be classified and labeled.</t>
   </si>
   <si>
     <t>Control Env. + Control Des. Eff.</t>
@@ -2390,8 +2374,7 @@
 	Only the CFCL, EFAG, ExR, and DBAG document 'Version Record' sections included both the responsible function and document approval details. CBL, CBF, CI, CS, and CH have since addressed the gaps.
 	CFCL, CBL, CBF, CI, CS, CH, and LuxCSD provided a detailed breakdown of their processes, categorizing them into bundles and assigning each a classification (Methodology, Processing, or Support). The remaining entities referenced the four broad process areas (Management, Control, Core, and Support) but did not include the same level of detailed mapping, instead directing readers to the Process Map for further information.
 	Most strategies except LuxCSD’s explicitly mentioned the quarterly performance review frequency for regulatory-relevant outsourced services and ICT services supporting Critical or Important Functions (CIF’s). While the LuxCSD Service Delivery Statements (SDSs) may drive a different control frequency, the document should mention it. 
-Additionally, the strategy documents did not explicitly link to the concentration risk arising from multiple CIFs relying on a single supplier or closely connected providers. They did not clearly define exit planning accountability in outsourcing arrangements, particularly those involving CIFs, nor did they specify sub-outsourcing arrangement approval and oversight accountability. The documents integrated cloud services within the broader outsourcing framework but did not establish cloud computing as a distinct risk domain (except for CFCL who had a specific cloud chapter) or assign governance responsibility for managing cloud-specific risks. They also did not explicitly reference the need for enhanced due diligence specific to Cloud Service Providers (CSPs), despite their critical role in supporting key ICT functions. Lastly, the strategy documents did not clearly articulate how CIF identification influenced outsourcing decisions, risk assessments, or the application of enhanced controls.
-</t>
+Additionally, the strategy documents did not explicitly link to the concentration risk arising from multiple CIFs relying on a single supplier or closely connected providers. They did not clearly define exit planning accountability in outsourcing arrangements, particularly those involving CIFs, nor did they specify sub-outsourcing arrangement approval and oversight accountability. The documents integrated cloud services within the broader outsourcing framework but did not establish cloud computing as a distinct risk domain (except for CFCL who had a specific cloud chapter) or assign governance responsibility for managing cloud-specific risks. They also did not explicitly reference the need for enhanced due diligence specific to Cloud Service Providers (CSPs), despite their critical role in supporting key ICT functions. Lastly, the strategy documents did not clearly articulate how CIF identification influenced outsourcing decisions, risk assessments, or the application of enhanced controls.</t>
   </si>
   <si>
     <t>Review the content of the DBAG/EFAG Outsourcing &amp; Third-Party Risk Strategy documents and incorporate the missing elements to enhance clarity where needed.</t>
@@ -2410,8 +2393,7 @@
   </si>
   <si>
     <t>Review the content of the CBL/CEU/CI/CS/CH Outsourcing &amp; Third-Party Risk Strategy document and incorporate the missing elements to enhance clarity where needed.
-IA acknowledges that the recommendation was partially addressed at the time of audit report issuance, particularly in relation to the process breakdown. 
-</t>
+IA acknowledges that the recommendation was partially addressed at the time of audit report issuance, particularly in relation to the process breakdown.</t>
   </si>
   <si>
     <t>Gianna Kore</t>
@@ -2455,8 +2437,7 @@
   <si>
     <t>Internal Audit noted that, while there were established controls in place for the pre-assessment by Outsourcing Coordinators (OC), there was a gap in the pre-assessment process for services categorized as business process (BPO) non-IT. Specifically, the pre-assessment questionnaire (PAQ) lacked targeted ICT-related questions to ensure that the requested service was independent form ICT systems or infrastructures. 
 The initial classification of services is determined by the Service Requestor (SR) during the PAQ process. For BPO (non-IT), reliance is placed on information from the service description, product group, and ICT category defined in the pre-assessment master data. However, there were no additional targeted ICT questions within the PAQ workflow for this service, such as “Does this service involve software“ or “data processing cloud storage”, or “remote access to the outsourcer system?”, to substantiate that the service was non-IT related in nature. 
-Digital Operational Resilience Act (DORA) mandates financial institution to clearly identify and manage Information and Communication Technology (ICT) dependencies to ensure digital operational resilience. 
-</t>
+Digital Operational Resilience Act (DORA) mandates financial institution to clearly identify and manage Information and Communication Technology (ICT) dependencies to ensure digital operational resilience.</t>
   </si>
   <si>
     <t>Update the Pre Assessment Questionnaire (PRA) for non-IT Business Processes initiative to include targeted ICT-related questions.</t>
@@ -2482,8 +2463,7 @@
   <si>
     <t>Internal Audit (IA) noted that DBG's Exit Action Plan (EAP) template included the topics required under 'Exit Strategy' as per the Digital Operational Resilience Act (DORA). However, the template did not explicitly reference the term 'Exit Strategy'. The elements of the 'Exit Strategy' (e.g., contractual transfer information, impacted business areas, exit options) were included within the EAP's 'Exit Plan' section, and the 'Action Plan' section contained implementation details that align with DORA's understanding of an 'Exit Plan'. The exclusion of the term ‘Exit Strategy’ could lead regulators to believe that DBG lacks such a strategy.
 IA also observed documentation inconsistencies. Appway referred to 'Exit Strategy', but its content corresponded to the information in the EAP's 'Exit Plan' section. This inconsistency could create confusion during regulatory reviews and audits. The inconsistency further contributed to broader issues in mapping information between the procedures, Appway, and the Register of Information. IA required several interactions to understand and map this information, highlighting the difficulty a third party would face.
-As per DORA, ‘For ICT services supporting critical or important functions, financial entities shall put in place exit strategies’. 
-</t>
+As per DORA, ‘For ICT services supporting critical or important functions, financial entities shall put in place exit strategies’.</t>
   </si>
   <si>
     <t>Add an explanation to the Exit Action Plan template demonstrating how DBG's current template addresses the DORA exit strategy requirement, mapping existing practices to specific DORA elements for clarity during regulatory reviews and audits.</t>
@@ -2517,8 +2497,7 @@
 ▪ Ongoing contract renegotiations with ICT third parties.
 At the time of the audit report issuance, the identification of existing ICT service providers and the ICT services used had been finalized, 
 additionally the hiring process for additional resources had been initiated. Operating effectiveness of implemented actions had not been verified by 
-Internal Audit as the finalization occurred during the audit report drafting phase.
-</t>
+Internal Audit as the finalization occurred during the audit report drafting phase.</t>
   </si>
   <si>
     <t>▪ Finalization of Portfolio Reassessment and subsequent inclusion into Register of Information (ROI) for the 2026 reporting.
@@ -2562,8 +2541,7 @@
 	In all 5 tested months, calculation of Cash Settlement amount signed, Announcement of Cash Settlement to CM and Cash Settlement Fee recording was not documented under Organizational 4 eyes-principle, although it was designed.
 	Regarding the Eurex Fixed Income Futures expiry handling subprocess, on sample of 3 quarters:
 	In 2 tested quarters, Checklist tasks were not fully marked as complete.
-Internal business procedures 7.2.5.3.3 C7 SCS Balance Check – Imbalance Clean-Up defined excel sheet and tabs to be updated and , relevant departments to be informed. 7.2.1.3.12 Coupon Compensation – Net-Gross Tax Correction defined notification templated to be used. 7.2.1.1.7 Cash Settlement Equities defined organizational 4 eyes-principle controls to be followed, 7.2.1.2.6 Eurex Fixed Income Futures expiry handling defined usage of checklists for subprocess execution accuracy.
-</t>
+Internal business procedures 7.2.5.3.3 C7 SCS Balance Check – Imbalance Clean-Up defined excel sheet and tabs to be updated and , relevant departments to be informed. 7.2.1.3.12 Coupon Compensation – Net-Gross Tax Correction defined notification templated to be used. 7.2.1.1.7 Cash Settlement Equities defined organizational 4 eyes-principle controls to be followed, 7.2.1.2.6 Eurex Fixed Income Futures expiry handling defined usage of checklists for subprocess execution accuracy.</t>
   </si>
   <si>
     <t>Internal Audit recommends that Securities Clearing Operations (ZQY) perform controls based on the designed 7.2.5.3.3 C7 SCS Balance Check – Imbalance Clean-Up, 7.2.1.3.12 Coupon Compensation – Net-Gross Tax Correction, 7.2.1.1.7 Cash Settlement Equities and 7.2.1.2.6 Eurex Fixed Income Futures expiry handling subprocesses.</t>
@@ -2610,8 +2588,7 @@
 	Five SDS  were incomplete and inaccurate concerning the sub-outsourcing of tax services from DBAG to Clearstream Services (CS) for Luxembourg legal entities. The referenced 'Outsourcing Hub' was not consistently reflected across all relevant outsourcing agreements. IA also identified missing annexes and an unclear scope definition for the Luxembourg entities.
 	Financial Reporting was an agreed-upon service between several Luxembourg entities (CI, CBL, LuxCSD, and CS) and DBAG. However, this service was not reflected in the downstream SDS between DBAG and Clearstream Services (CS), resulting in a break in the documented outsourcing chain.
 Additionally, IA identified weaknesses in the Key Performance Indicator (KPI) reports for Corporate Tax services. Specifically, the reports were incomplete in relation to the services defined in the SDS, and discrepancies were noted between the defined KPI metrics and the actual reported figures. For example, while the SDS specified a KPI target of 1 (reflecting the number of annual reports), a KPI of 300 was reported to the outsourcing legal entity.
-European, German, and Luxembourg regulations and guidance require that outsourcing arrangements be formalized through a service contract. These contracts must be complete, up to date, and accurately reflect all the services agreed upon between the outsourcing legal entity and the service provider. In addition, outsourced services must be subject to robust risk monitoring and management mechanisms to ensure regulatory compliance and maintain operational resilience.
-</t>
+European, German, and Luxembourg regulations and guidance require that outsourcing arrangements be formalized through a service contract. These contracts must be complete, up to date, and accurately reflect all the services agreed upon between the outsourcing legal entity and the service provider. In addition, outsourced services must be subject to robust risk monitoring and management mechanisms to ensure regulatory compliance and maintain operational resilience.</t>
   </si>
   <si>
     <t>Internal Audit recommends that Tax Legal &amp; Transfer Pricing (ZGW): 
@@ -2654,16 +2631,14 @@
   <si>
     <t>Internal Audit (IA) identified that the EU VAT refund process for Clearstream legal entities in Luxembourg was initiated but not finalized as per the documented procedure. Although recurring cost-benefit assessments indicated limited justification for pursuing refunds, no formal decision was taken to classify the process as dormant. Nonetheless, it remained dormant within the Clearstream process landscape.
 A similar issue was observed for EU VAT refund process applicable to German entities in addition to a lack of process description.
-In accordance with European, German, and Luxembourg regulatory requirements, financial institutions are expected to establish and maintain a clearly defined process landscape that outlines the roles and responsibilities of each functional unit. This process landscape must be regularly reviewed and promptly updated to reflect any organizational changes or decisions impacting process execution. 
-</t>
+In accordance with European, German, and Luxembourg regulatory requirements, financial institutions are expected to establish and maintain a clearly defined process landscape that outlines the roles and responsibilities of each functional unit. This process landscape must be regularly reviewed and promptly updated to reflect any organizational changes or decisions impacting process execution.</t>
   </si>
   <si>
     <t>Internal Audit recommends that Group Tax (ZFC):
 	Conduct a one-off comprehensive cost-benefit analysis of the EU VAT refund process to determine whether EU VAT refund process should be continued or formally discontinued.
 	Ensure that the decision is properly documented with clear rationale and supporting evidence.
 	Assess whether Group Tax holds the authority to make this decision independently or if escalation to a higher governance level (e.g., DBAG Executive Board) is necessary.
-	Following the decision, update the Luxembourg and German process landscapes to accurately reflect the current execution status.
-</t>
+	Following the decision, update the Luxembourg and German process landscapes to accurately reflect the current execution status.</t>
   </si>
   <si>
     <t>Nancy Schanda</t>
@@ -2704,8 +2679,7 @@
 	next jurisdictions in pipeline: IN, DK and SG
 	further centralization &amp; risk reduction
 	unlock additional financial and compliance benefits
-	including/implementing local (foreign) management in the tax processes - to get them aware of tax issues
-</t>
+	including/implementing local (foreign) management in the tax processes - to get them aware of tax issues</t>
   </si>
   <si>
     <t>CBL Luxembourg,Clearstream Europe AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG</t>
@@ -2745,8 +2719,7 @@
   <si>
     <t>Internal Audit recommends Clearing Delivery &amp; Control (DDF) to: 
 -	assess the associated risks in collaboration with the insourcing party considering relevant governance decisions on audit rights from the insourcer’s side. Evaluate whether these decisions affect the existing contractual framework and prepare a set of actionable options for presentation to the ECAG Executive Board 
--	implement measures to remediate audit limitations following the decision of the ECAG Executive Board (for example, adjusting the underlying service contract)   
-</t>
+-	implement measures to remediate audit limitations following the decision of the ECAG Executive Board (for example, adjusting the underlying service contract)</t>
   </si>
   <si>
     <t>Markus Holecz</t>
@@ -2769,8 +2742,7 @@
   <si>
     <t>Internal Audit recommends Default Management (DME) to: 
 - 	assess the associated risks in collaboration with the insourcing party considering relevant governance decisions on audit rights from the insourcer’s side. Evaluate whether these decisions affect the existing contractual framework and prepare a set of actionable options for presentation to the ECAG Executive Board 
-- 	implement measures to remediate audit limitations following the decision of the ECAG Executive Board (for example, adjusting the underlying service contract)   
-</t>
+- 	implement measures to remediate audit limitations following the decision of the ECAG Executive Board (for example, adjusting the underlying service contract)</t>
   </si>
   <si>
     <t>Andreas Pistohl</t>
@@ -2800,8 +2772,7 @@
     <t>A security baseline defines the minimum required security level, prescribing the technical measures and configurations for a given infrastructure asset type.
 Security configurations based on the respective security baseline documents for MySQL databases were largely performed manually; hence continuous scanning of database security baseline configurations was essential to timely detect misconfigurations.
 Internal Audit noted that the MySQL databases were excluded from automated baseline security scans performed by Rapid7 Nexpose due to technical non-compatibility and resolution of the issue was currently in discussion with the vendor. However, for 21 out of 24 sampled database servers, even annual manual compliance reviews had not been performed as defined in Baseline Security Guideline version 1.6.
-European, German and Luxembourg regulation require that systems are configured with applicable security baselines and monitored to identify and timely remediate any deficiencies.
-</t>
+European, German and Luxembourg regulation require that systems are configured with applicable security baselines and monitored to identify and timely remediate any deficiencies.</t>
   </si>
   <si>
     <t>In line with Baseline Security Guideline, review all MySQL databases against the Group Security baseline and suitably remediate or exempt identified deviations within the defined timeline.</t>
@@ -2875,14 +2846,12 @@
 	Network exposure details (e.g. internet exposure)
 	ICT business continuity requirements (RTO and RPO)
 CMS did not provide information about relationships between Linux Assets and IT Product Line owners.
-Additionally, some asset owner IDs listed in CMS_to_RAP could not be mapped to an individual person.
-</t>
+Additionally, some asset owner IDs listed in CMS_to_RAP could not be mapped to an individual person.</t>
   </si>
   <si>
     <t>	Enable mandatory data fields (e.g. Asset Owner) in CMS for OS Asset types considering ICT Asset Management Guideline
 	The process to regularly check the accuracy of the data Information should be updated.
-	Ensure that the new mandatory data fields are populated and centrally control their maintenance
-</t>
+	Ensure that the new mandatory data fields are populated and centrally control their maintenance</t>
   </si>
   <si>
     <t>Sean Mc Taggart</t>
@@ -2917,8 +2886,7 @@
   <si>
     <t>Internal Audit recommends that Security IT – Digitise, Evolve &amp; Innovate (SAO): 
 	classify and update the “Audit Document” and the contents of the SAO SharePoint site according to the DBG Written Rules Framework Guideline
-	determine the key relevance of the internal documentation (working instructions, procedures) and its possible shared usage, to consider transferring them into DBG’s official IT written rules database in coordination with IT Governance, Risk and Transformation (IRT)
-</t>
+	determine the key relevance of the internal documentation (working instructions, procedures) and its possible shared usage, to consider transferring them into DBG’s official IT written rules database in coordination with IT Governance, Risk and Transformation (IRT)</t>
   </si>
   <si>
     <t>CBL Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Deutsche Börse AG,ECC AG,Eurex Clearing AG,Eurex Repo GmbH,European Energy Exchange,Group IT Audit,LUXCSD</t>
@@ -2930,8 +2898,7 @@
     <t>The PKI DBAG (AID1064) and PKI Clearstream (1066) applications are internal Certificate Authorities used to digitally sign certificates for internal applications and servers that are requested by other teams within DBAG and Clearstream legal entities. PKI MSCA (AID1065) is a Certificate Authority used to digitally sign certificates that are requested regarding Skype and Outlook S/MIME  certificates and Microsoft Windows Hello for Business.
 During an inspection of the PKI DBAG, PKI Clearstream and PKI MSCA cryptography key management processes primarily managed by Security IT’s - Digitise, Evolve &amp; Innovate (SAO) unit, they referenced an internal operational procedure as “Audit Document” instead of a formally approved procedure. The document didn’t include essential elements (i.e., purpose, scope, management approval) as defined by the overarching Written Rules Framework Guideline. Despite its informal nature and not being published in the central written rules repository, SAO acknowledged the Audit Document was possibly used by multiple IT Operations/Production Support teams as a key reference for the structure of their own key management procedures, to support and further operationalize the requirements laid down in the primary document, the Encryption and Key Management Guideline published centrally by the Chief Risk Officer (FOC) area.
 Further inspection of the SAO SharePoint site revealed that 19 out of 37 cryptography-related operating procedures and work instructions had not been reviewed and approved in several years (between 2020-2023) and did not state whether they were active or decommissioned. While a yearly review control exists in a JIRA task (SECPKII-1063), it lacked detailed execution steps, as well as evidence of its performance.
-European, German, and Luxembourg regulations require precise and clear procedures manual which is accessible and up to date must be maintained. Business activities are conducted based on organizational guidelines. Related business, control and monitoring documentation should be written in a manner that is readily comprehensible to expert third parties.
-</t>
+European, German, and Luxembourg regulations require precise and clear procedures manual which is accessible and up to date must be maintained. Business activities are conducted based on organizational guidelines. Related business, control and monitoring documentation should be written in a manner that is readily comprehensible to expert third parties.</t>
   </si>
   <si>
     <t>CHRISTOPH BÖHM(Deutsche Börse AG),DANIEL BESSE(CS Luxembourg),FRANK GAST(Eurex Repo GmbH),KEVIN HAYES(Clearstream Fund CentreSA),MANFRED MATUSZA(Eurex Clearing AG),MARCO CALIGARIS(LUXCSD),RICK JENS(ECC AG),RICK JENS(European Energy Exchange),VOLKER RIEBESELL(Clearstream Europe AG),YANNICK GOINEAU(CBL Luxembourg)</t>
@@ -2952,15 +2919,13 @@
 Internal Audit recommends that IT Core Process Design &amp; Operations (ÜPÜ) -
 	update the ‘APMS_User Manual’ and ‘APMS Process Description’ documents with detailed criteria / guidance and their rollout
 	update APMS application functionality to include new asset type
-	impart awareness across DBG on the new asset type
-</t>
+	impart awareness across DBG on the new asset type</t>
   </si>
   <si>
     <t>Internal Audit recommends that IT Core Process Design &amp; Operations (ÜPÜ) -
 	update the ‘APMS_User Manual’ and ‘APMS Process Description’ documents with detailed criteria / guidance and their rollout
 	update APMS application functionality to include new asset type
-	impart awareness across DBG on the new asset type
-</t>
+	impart awareness across DBG on the new asset type</t>
   </si>
   <si>
     <t xml:space="preserve">IT Core Process Design &amp; Operations (ÜPÜ) agrees with the finding and recommendation, and will implement the recommendation. </t>
@@ -2968,8 +2933,7 @@
   <si>
     <t>An audit comment 5.3 raised in 2024-063 Technology Governance noted Deutsche Börse Group’s (DBG) Application Portfolio Management System (APMS) was incomplete regarding external web assets/services, which IA provisionally designated as “Partner Services”. A feasibility assessment about introducing Partner Services as a new asset type was to be completed by December 2024, its definition included within the ICT Asset Management Guideline v1.0 and control requirements established in the Mandatory Control Framework (MCF).
 IA noted that DBG’s APMS inventory did not yet include Partner Services. 2nd LoD - ICT Risk Framework (KJU) and 1st LoD - IT Core Process Design &amp; Operations (ÜPÜ) were still developing clear definition, control requirements and process descriptions. KJU plans to put in force a fully revised ICT Asset Management Guideline v1.1, including the definition of Partner Services, by end of Q3 2025.
-German and Luxembourg regulations require financial institutions to maintain accurate and complete inventories of IT assets, including third-party related assets.
-</t>
+German and Luxembourg regulations require financial institutions to maintain accurate and complete inventories of IT assets, including third-party related assets.</t>
   </si>
   <si>
     <t>BOGLARKA BARTHA(CS Luxembourg),DMITRIJ SENKO(Eurex Clearing AG),FABRICE TOMENKO(CI Luxembourg),FRANK ODENDALL(Eurex Repo GmbH),GREGOR POTTMEYER(Deutsche Börse AG),JEAN-MARC DI CATO(CBL Luxembourg),JONAS ULLMANN(Eurex Frankfurt AG),MARCO CALIGARIS(LUXCSD),PHILIP BROWN(Clearstream Holding AG),PRINZLER RALF(ECC AG),RICK JENS(European Energy Exchange),SONIA DRIBEK-PFLEGER(Clearstream Fund CentreSA),UDO HENKELMANN(Clearstream Europe AG)</t>
@@ -2998,8 +2962,7 @@
   <si>
     <t>Deutsche Börse Group’s (DBG) Application Portfolio Management System (APMS) is designed to serve as a central inventory of all relevant applications used across DBG and its subsidiaries.
 Internal Audit noted that ‘Dataminr’, a subscription-based external web portal used for collecting ‘Physical Security related Threat Intelligence’ details for DBG entities, was not captured in the APMS inventory.
-German and Luxembourg regulations require financial institutions to maintain accurate and complete inventories of IT assets, including third-party related assets.
-</t>
+German and Luxembourg regulations require financial institutions to maintain accurate and complete inventories of IT assets, including third-party related assets.</t>
   </si>
   <si>
     <t>2025-045_F08</t>
@@ -3028,8 +2991,7 @@
   <si>
     <t>When assessing DBG’s vulnerability management solution Rapid7 Nexpose (NXP), Internal Audit (IA) identified around 2500 NXP tickets with status ‘Fix Claimed’ that were overdue, out of which 45 were critical or high. Addressing vulnerabilities until closure is the IT Asset Owner’s/Application Owner’s (IT teams) responsibility, and the vulnerability management team – Plan &amp; Design Services (VLM) – acts as a control function, by confirming/rejecting the IT teams ‘Fix claimed’ and ‘False Positive’ status claims. Such tickets statuses are being reported as part of the Digital Security Committee (DSC) KPIs, however these should have been treated and set to ‘close’ by the VLM team or by the automated re-test.
 Deadlines for treatment of vulnerabilities are set in the ICT Patch and Vulnerabilities Management Guideline, however multiple teams need to be involved – teams treating the fix (IT teams) and validating the fix (VLM), who all need a certain time to perform their tasks. The underlying procedures were not detailed enough to be able to respect jointly the timelines set by the guidelines. In case the IT team submitted the ticket as ‘Fix Claimed’ just before the overall deadline, the ticket was already in ‘overdue’ status when treated by VLM. 
-European, German and Luxembourg regulation requires organizations to establish a structured process for identifying, assessing, remediating, and reporting vulnerabilities.
-</t>
+European, German and Luxembourg regulation requires organizations to establish a structured process for identifying, assessing, remediating, and reporting vulnerabilities.</t>
   </si>
   <si>
     <t>Rahul Choubey</t>
@@ -3169,14 +3131,12 @@
 	Internal controls and regular communication (mostly IT tickets, emails and meetings) with responsible parties (delivery applications’ business and/or IT owners) to address identified billing errors.
 	JIRA-based error list creation, to harmonize error handling across ZHV and avoid double maintenance/reporting. Corporate IT was expected to deliver it in Q3 2025.
 	AI solution for anomalies detection of securities master data (an error which cannot be identified by a standard internal control system) in the Revenue Management Clearstream unit to support manual efforts in identifying data discrepancies since April 2025. However, while AI has improved error detection, it has also increased the volume of identified discrepancies — resulting in a higher workload and more corrections required.
-External and internal provisions require that robust data management frameworks be established including data quality controls. Fees should also be fair and reasonable, calculations transparent and invoices based on accurate data. Institutions should maintain adequate arrangements, safeguards and controls to ensure an effective internal control system and risk management.
-</t>
+External and internal provisions require that robust data management frameworks be established including data quality controls. Fees should also be fair and reasonable, calculations transparent and invoices based on accurate data. Institutions should maintain adequate arrangements, safeguards and controls to ensure an effective internal control system and risk management.</t>
   </si>
   <si>
     <t>	Conduct a comprehensive analysis of billing errors across all three billing areas to identify high-impact recurring issues, tracking them to the primary business sourcesand impacted Legal Entities, with focus on quality of delivered data.
 	Explore digital solutions for error detection in Clearstream, Cash and Derivatives Market billing to improve efficiency and accuracy.
-	Strengthen governance and improve accountability by implementing cohesive oversight, timely senior management escalation of identified and recurring issues as well as transparent regular reporting via complete and accurate KPI and other targeted reports.
-</t>
+	Strengthen governance and improve accountability by implementing cohesive oversight, timely senior management escalation of identified and recurring issues as well as transparent regular reporting via complete and accurate KPI and other targeted reports.</t>
   </si>
   <si>
     <t>CBL Luxembourg,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG,Eurex Repo GmbH,LUXCSD</t>
@@ -3267,8 +3227,7 @@
   </si>
   <si>
     <t>-Align with SAP S/4HANA’s (AID489) respective functional stakeholders and update the APMS list of components for completeness and accuracy
--Co-ordinate with Detect and Prevent (DTP) - SIEM Admin team - to perform the Use Case Assessments for the updated list of components and onboard them to the SIEM tool accordingly
-</t>
+-Co-ordinate with Detect and Prevent (DTP) - SIEM Admin team - to perform the Use Case Assessments for the updated list of components and onboard them to the SIEM tool accordingly</t>
   </si>
   <si>
     <t xml:space="preserve">Insufficient performance of use case assessment and SIEM onboarding of SAP S/4HANA system components may lead to gaps in log delivery to the security tool. This could result in non-detection of security risks and the inability to take appropriate actions in the event of an information security incident. This represents a material violation of internal and external provisions, such as minor breach of regulatory requirements and minor financial impact. </t>
@@ -3313,8 +3272,7 @@
     <t>The risk metric value for “Pillar I: Total Capital Ratio” reached 20.94% in Q3 2024, which is below the early warning threshold of 21% as reported within the quarterly risk management report for Q3 2024. Upon inquiries with the indicator owner Supervisory Reporting Germany (FCL), it was confirmed that the applicable early warning threshold was 19.44% when the risk metric value for “Pillar I: Total Capital Ratio” reached 20.94%. Therefore, indicator breach did not occur.
 Internal Audit (IA) noted that the thresholds were determined by Capital Planning Unit, and they can change over time due to the dynamic nature of certain components of the calculation. However, IA identified that the line of communication between Capital Planning (BLL) and Enterprise Risk Management (UIY) was not clear.
 Although the thresholds were updated in Q2 2024, UIY did not reflect the updates in the quarterly risk reports, hence the thresholds used for “Pillar I: Total Capital Ratio” in Q3 2024, Q4 2024 and Q1 2025 quarterly risk reporting were inaccurate.
-MaRisk BT 3.1.1 refers that risk reports should be based on complete, precise and current data. 
-</t>
+MaRisk BT 3.1.1 refers that risk reports should be based on complete, precise and current data.</t>
   </si>
   <si>
     <t>Establish and maintain a clear line of communication between the responsible units setting the risk appetite thresholds and Enterprise Risk Management (UIY) to ensure alignment and accuracy in the reporting of thresholds.</t>
@@ -3349,8 +3307,7 @@
 	For the Risk Metric "Economic Liquidity Ratio", Amber Threshold and Red Thresholds were presented as &lt;180% and &lt;120%, respectively, within the quarterly Risk Management Reporting for Q1 2025. The thresholds reported within the quarterly Risk Management Reporting for Q1 2025 were the latest approved thresholds at the time of the reporting. However, those latest approved thresholds were not reflected in the Risk Appetite Framework. Such thresholds per Risk Appetite Framework were determined as &lt;215% and &lt;150%. Such inaccuracy in this ratio applied to all the following risk clusters: Funding/Refinancing Risk, Illiquidity Risk, Intraday Liquidity Risk. Furthermore, for “Economic Liquidity Ratio”, the limits in RAF not only differed from those in Q1 Risk Management Report but also from those in Liquidity Indicator Concept and ILAAP handbook.
 	Red threshold defined in Risk Appetite Framework for Risk Metric "Number of introduced operational tax-relevant products / services / functionalities which were not subject to upfront operational tax analysis" (equal or more than 2 topics identified before launch or 1 topic identified after launched service) was inconsistent with the red threshold defined in Q1 2025 Quarterly Risk Management Reporting for the risk (equal or more than 3 topics identified before launch or 1 topic identified after launched service).
 UIY already identified other inconsistencies during the Quarterly Risk Report re-design in Q1 2025 in the transition phase and these were discussed and addressed to the ECAG Chief Risk Officer. However, the abovementioned inconsistencies identified by IA were not captured by UIY.
-MaRisk AT 5 explains that the institution must ensure that its business activities are conducted based on organizational guidelines (e.g. manuals, work documentation or workflow procedures).
-</t>
+MaRisk AT 5 explains that the institution must ensure that its business activities are conducted based on organizational guidelines (e.g. manuals, work documentation or workflow procedures).</t>
   </si>
   <si>
     <t>Ensure that the thresholds reported to the Executive Board are fully aligned with those defined in the Risk Appetite Framework. In cases where thresholds are revised during the year, promptly update the Risk Appetite Framework to reflect the most current values and maintain consistency across all reporting documents.</t>
@@ -3380,16 +3337,14 @@
 	In the Liquidity Indicator Concept the amber limit of “Own Funds” was defined as EMIR Capital Requirements + SITG + SSITG - 200mn. In Chapter 8.2 of the ECAG ILAAP Handbook, however, it was only stated EMIR Capital Requirements + SITG + SSITG, which is the correct calculation according to UIY. While the ECAG ILAAP Handbook referred to the Liquidity Indicator Concept for the newest limits, it showed the correct limit calculation, and the Liquidity Indicator Concept was outdated.
 	In Chapter 11, the listed monthly Stress Testing Report from DRA was canceled by the end of 2024 and is no longer in place. Information on the LST was now included in the monthly Liquidity Risk Report. Furthermore, within the list the new reporting duty of UIY in form of the quarterly Risk Management Report starting as of beginning of 2025 was missing.
 However, UIY confirmed that changes in organizational structure of ECAG would not trigger ad-hoc review of business procedures but would rather trigger qualitative element of assessing if ad-hoc update is necessary.
-The information in the ECAG ILAAP Handbook should be complete, up-to-date and correct. The defined regular review and update process, at least on an annual basis, and whenever the circumstances would require should be followed.
-</t>
+The information in the ECAG ILAAP Handbook should be complete, up-to-date and correct. The defined regular review and update process, at least on an annual basis, and whenever the circumstances would require should be followed.</t>
   </si>
   <si>
     <t>Update the ILAAP Handbook so that it represents all aspects of ECAG’s ILAAP in a clear, up-to-date, and complete way.</t>
   </si>
   <si>
     <t>Inconsistencies in the ECAG ILAAP process documentation exposed the company to the risk of operational errors in case of outdated/inaccurate business procedures.
-This represents a material violation of internal and external provisions in case policies are not updated swiftly in the event of significant changes.
-</t>
+This represents a material violation of internal and external provisions in case policies are not updated swiftly in the event of significant changes.</t>
   </si>
   <si>
     <t>2025-053_F04</t>
@@ -3405,8 +3360,7 @@
 Namely, IA noted that the qualitative materiality assessment carried out for Wrong-Way Credit Risk was referring to strong concentration and wrong way risk policies as mitigating factors for the risk, with the help of various limits which are continuously monitored and reported by the first line of defense.
 Auditees also explained that the materiality assessment carried out for Wrong-Way Credit Risk stemmed from the “Additionally Monitored Risk Framework”, which essentially lays out Eurex Clearing’s framework to identify, assess, monitor, mitigate and report credit concentration and wrong way risks.
 Upon inquiries, it was confirmed by the auditees that the Wrong-Way Credit Risk is already prevented at the level of 1st Line of Defense, given there is no appetite for taking the Wrong-Way Credit Risk. Therefore, by nature, mitigating factors were not considered in the materiality assessment for such risk. 
-DBG Group Risk Management Procedure notes that the materiality assessment should be performed on the gross approach. Therefore, risk mitigating measures should not be considered when assessing the materiality of the Risk Cluster. Application of gross approach is also explained within ECB Guide to the ICAAP as follows: “Under the gross approach, risks are first identified without considering specific techniques designed to mitigate them. A risk could be regarded as material if its materialization, omission or misstatement would significantly change or influence the capital adequacy, profitability, or continuity of the institution from an economic perspective, irrespective of the accounting treatment applied.”
-</t>
+DBG Group Risk Management Procedure notes that the materiality assessment should be performed on the gross approach. Therefore, risk mitigating measures should not be considered when assessing the materiality of the Risk Cluster. Application of gross approach is also explained within ECB Guide to the ICAAP as follows: “Under the gross approach, risks are first identified without considering specific techniques designed to mitigate them. A risk could be regarded as material if its materialization, omission or misstatement would significantly change or influence the capital adequacy, profitability, or continuity of the institution from an economic perspective, irrespective of the accounting treatment applied.”</t>
   </si>
   <si>
     <t>Update the qualitative materiality assessment to remove references to mitigating measures, ensuring it clearly reflects that the assessment is based on the gross approach.</t>
@@ -3429,16 +3383,14 @@
   <si>
     <t>Although ILAAP is mostly in line with regulatory requirements, some MaRisk requirements have not been fully met.
 In MaRisk BTR 3.1, paragraph 8, the determination of a survival horizon for stress scenarios was explicitly required. ECAG did not explicitly report the expected survival horizon, but it was indirectly calculated as part of the Liquidity Stress Testing application. All stress scenarios had a maximum forecast horizon of 6 days aligned with the duration of ECAG's Default Management process (maximum Margin Period of Risk (MPOR) = five plus one day as some liquidity flows would be due on the morning after the last day of the MPOR). As ECAG was not exposed to additional material risks from term-transformations, ECAG assumed the survival horizon was infinite in all cases where liquidity was sufficient to survive the first six days after a Clearing Member default. In the (theoretical) case that a stress testing scenario would result in a liquidity shortfall, the expected survival horizon was the first day within the six-day forecast horizon where the liquidity balance of his scenario sheet would show a gap.  
-However, the aforementioned considerations regarding compliance with the regulatory requirements of MaRisk were not documented or formally recorded. Furthermore, although the information on the survival horizon could be derived and reported from the stress testing scenario output data, this was not done yet.
-</t>
+However, the aforementioned considerations regarding compliance with the regulatory requirements of MaRisk were not documented or formally recorded. Furthermore, although the information on the survival horizon could be derived and reported from the stress testing scenario output data, this was not done yet.</t>
   </si>
   <si>
     <t>Update documentation so that all considerations regarding compliance with the regulatory requirements of MaRisk are recorded.</t>
   </si>
   <si>
     <t>Incomplete ILAAP documentation of compliance with MaRisk requirements exposed the company to the risk of inability to show compliance with regulatory requirements in case compliance was not formally documented.
-This represents a minor violation of internal or external provisions in case business procedures are not updated to formally regulatory requirements.
-</t>
+This represents a minor violation of internal or external provisions in case business procedures are not updated to formally regulatory requirements.</t>
   </si>
   <si>
     <t>2025-054_F01</t>
@@ -3500,8 +3452,7 @@
 §	The criteria for defining and justifying threshold level were not formally documented 
 §	The approval process for threshold changes was not formalized. Nevertheless, the threshold was approved by the Head of Risk Exposure Management by email. However, the last approval occurred in November 2021.
 European Regulation (EU) No 648/2012 (EMIR) Article 26 requires robust operational conditions for valuation and margining processes.
-German regulation (MaRisk AT 4.3.1) mandates a documented internal control system including defined responsibilities and procedures for risk-relevant processes. 
-</t>
+German regulation (MaRisk AT 4.3.1) mandates a documented internal control system including defined responsibilities and procedures for risk-relevant processes.</t>
   </si>
   <si>
     <t>Assign clear ownership for threshold setting and maintenance.
@@ -3538,8 +3489,7 @@
 	In 8 out of 38 instances, manual price adjustments were made without entering the required source documentation (e.g., “Comdirect” or “Xetra”) in the comment field, compromising traceability.
 These issues indicate ineffective execution of controls and a lack of procedural adherence, undermining the reliability and auditability of settlement price data.
 European Regulation (EU) No 648/2012 (EMIR) Article 26 requires robust operational conditions for valuation and margining processes.
-German regulation (MaRisk AT 4.3) mandates a documented internal control system including defined responsibilities and procedures for risk-relevant processes 
-</t>
+German regulation (MaRisk AT 4.3) mandates a documented internal control system including defined responsibilities and procedures for risk-relevant processes</t>
   </si>
   <si>
     <t xml:space="preserve">Update the procedure to formally define whether funds quotes are permitted as valid source for settlement price confirmation, and if so, under which specific conditions they may be used.  
@@ -3582,16 +3532,14 @@
 -	Fragmented governance from decentralized authority: The policy failed to fit all business operations, e.g., signature of collateral management agreements where authority could not  be defined by a simple financial threshold. To compensate, business units have resorted to creating their own informal annexes to specify signing rules for these processes.
 ZFE had self-identified significant deficiencies in their current manual process, highlighting that it was inefficient and prone to error. On 16 May 2025, ZFE presented a "SignatureNet Implementation" proposal to Senior Management, to address security weaknesses regarding the maintenance of the ASL upon receiving HR confirmation. Management tasked ZFE with investigating an existing internal solution as a potential alternative. No final decision was made, discussions for an in-house solution were underway.
 While the specific data and test cases for these findings were sourced from Clearstream entities, the finding is   equally applicable to DBAG, ECAG, EFAG, and ExR. This was mainly a consequence of utilizing SAP S4 as the system of record for authority levels, applicable to all DBG employees.
-European, German, and Luxembourg regulation, as well as internal Group policies, require robust governance arrangements and an effective internal control system to prevent fraud and operational malpractice. Signatory rights must be clearly defined, properly authorized, and consistently enforced. Furthermore, regulations like GDPR mandate the strict protection of sensitive personal data.
-</t>
+European, German, and Luxembourg regulation, as well as internal Group policies, require robust governance arrangements and an effective internal control system to prevent fraud and operational malpractice. Signatory rights must be clearly defined, properly authorized, and consistently enforced. Furthermore, regulations like GDPR mandate the strict protection of sensitive personal data.</t>
   </si>
   <si>
     <t>	Clean the authority levels data currently recorded in SAP and ensure consistency with authority levels, as reflected in the ASL by:
 -	eliminating all indefinite expiry dates (e.g., “9999”) for authority exemptions and enforce the mandatory three-year review cycle for all temporary grants.
 -	performing a one-time reconciliation of the ASL against SAP records to identify and correct all data discrepancies and implementing a sustainable reconciliation process.
 	Remediate missing board member approval documentation by either performing a full, documented re-approval of all active grants or obtaining a collective, retroactive approval from the Board for all past grants.
-	Support the set-up of a robust solution for the maintenance of ASL authorities, replacing the currently existing pdf-files, as well as the maintenance of business specific authorities based on an aligned analysis by Control Function CEU (CFC), Trade Venue Regulation &amp; Governance (TVR), Corporate Governance Post-Trading (RGV) and Finance &amp; GRC (IKF). This includes the assignment of a project manager supporting the alignment between the relevant stakeholders and the implementation of a targeted solution.
-</t>
+	Support the set-up of a robust solution for the maintenance of ASL authorities, replacing the currently existing pdf-files, as well as the maintenance of business specific authorities based on an aligned analysis by Control Function CEU (CFC), Trade Venue Regulation &amp; Governance (TVR), Corporate Governance Post-Trading (RGV) and Finance &amp; GRC (IKF). This includes the assignment of a project manager supporting the alignment between the relevant stakeholders and the implementation of a targeted solution.</t>
   </si>
   <si>
     <t>Heike Eckert</t>
@@ -3603,8 +3551,7 @@
     <t>The incomplete governance over the authorized signatory process may expose the company to significantly increased operational, legal, financial and data protection risk. The lack of a unified governance framework and reliable data sources undermines the effectiveness of automated controls and increases the likelihood of unauthorized transactions, including fraudulent invoice approvals. Inadequate oversight of time-bound authority exemptions and systemic data integrity failures further erode 
 confidence in the control environment, potentially facilitating internal or external collusion.
 Moreover, insufficient protection and uncontrolled distribution of sensitive personal data, including signature specimens, constitutes a direct breach of GDPR. This not only increases the risk of regulatory sanctions and reputational damage but also impairs the Group’s ability to demonstrate compliance with statutory obligations.
-The absence of a central repository and reliance on manual processes for maintaining and distributing authorized signatory records heightens the risk that outdated or inaccurate information will be used for critical business decisions. The pervasive use of high-risk financial authority exemptions, coupled with decentralized governance, creates significant uncertainty regarding the adequacy and enforcement of signature authority across business units. Ultimately, these deficiencies may result in material financial loss, serious regulatory penalties, and limited reputational damage.
-</t>
+The absence of a central repository and reliance on manual processes for maintaining and distributing authorized signatory records heightens the risk that outdated or inaccurate information will be used for critical business decisions. The pervasive use of high-risk financial authority exemptions, coupled with decentralized governance, creates significant uncertainty regarding the adequacy and enforcement of signature authority across business units. Ultimately, these deficiencies may result in material financial loss, serious regulatory penalties, and limited reputational damage.</t>
   </si>
   <si>
     <t>DANIEL BESSE(CS Luxembourg),DIRK LOSCHER(Clearstream Europe AG),FABRICE TOMENKO(CI Luxembourg),FRANK GAST(Eurex Repo GmbH),HEIKE ECKERT(Deutsche Börse AG),JENS JANKA(Eurex Clearing AG),MARCO CALIGARIS(LUXCSD),PHILIP BROWN(CBL Luxembourg),PHILIPPE SEYLL(Clearstream Fund CentreSA),ROBBERT BOOIJ(Eurex Frankfurt AG),SAMUEL RILEY(Clearstream Holding AG)</t>
@@ -3616,11 +3563,9 @@
     <t>2025-055_F01-A02</t>
   </si>
   <si>
-    <t>
-	Collaborate with Trade Venue Regulation &amp; Governance (TVR), Corporate Governance Post-Trading (RGV), and Finance &amp; GRC (IKF) to define aligned requirements for business specific authorities.
+    <t>	Collaborate with Trade Venue Regulation &amp; Governance (TVR), Corporate Governance Post-Trading (RGV), and Finance &amp; GRC (IKF) to define aligned requirements for business specific authorities.
 	Jointly with People, Risk &amp; Compliance (ZBR), analyze and implement a robust solution to replace the current fragmented and manual processes for maintaining business specific authority levels (PoA), and the resulting ASL. This analysis should also evaluate whether the same tool and framework could be used for both the ASL and the business-related signature authorities.
-	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.
-</t>
+	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.</t>
   </si>
   <si>
     <t>Praveen Peter, Udo Henkelmann, Federico Miranda Fonseca</t>
@@ -3640,8 +3585,7 @@
   <si>
     <t>	Collaborate with Control Function CEU (CFC), Corporate Governance Post-Trading (RGV), and Finance &amp; GRC (IKF) to define aligned requirements for business specific authorities.
 	Jointly with People, Risk &amp; Compliance (ZBR), analyze and implement a robust solution to replace the current fragmented and manual processes for maintaining business specific authorityies levels (PoA), and the resulting ASL. As part of tThis analysis, it should also be evaluated whether the same tool and framework could be used for both, the ASL and the business-related signature authorities.
-	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.
-</t>
+	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.</t>
   </si>
   <si>
     <t>Maik Grünewald</t>
@@ -3661,8 +3605,7 @@
   <si>
     <t>	Collaborate with Control Function CEU (CFC), Trade Venue Regulation &amp; Governance (TVR), and Finance &amp; GRC (IKF) to define aligned requirements for business specific authorities.
 	Jointly with People, Risk &amp; Compliance (ZBR), analyze and implement a robust solution to replace the current fragmented and manual processes for maintaining business specific authorityies levels (PoA), and the resulting ASL. As part of tThis analysis, it should also be evaluated whether the same tool and framework could be used for both, the ASL and the business-related signature authorities.
-	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.
-</t>
+	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.</t>
   </si>
   <si>
     <t>CBL Luxembourg</t>
@@ -3685,8 +3628,7 @@
   <si>
     <t>	Collaborate with Control Function CEU (CFC), Trade Venue Regulation &amp; Governance (TVR), and Corporate Governance Post-Trading (RGV) to define aligned requirements for business specific authorities. 
 	Jointly with People, Risk &amp; Compliance (ZBR), analyze and implement a robust solution to replace the current fragmented and manual processes for maintaining business specific authorityies levels (PoA), and the resulting ASL. As part of this analysis, it should also be evaluated whether the same tool and framework could be used for both, the ASL and the business-related signature authorities.
-	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.
-</t>
+	Conduct a strategic review of all existing high-risk financial exemptions within your legal entities of responsibility to validate their business necessity and propose reductions where appropriate.</t>
   </si>
   <si>
     <t>Marco Steeg</t>
@@ -4034,8 +3976,7 @@
 •	Credit, concentration and wrong way risk related topics were moved from Risk Analytics Unit to Credit Risk Management &amp; Governance Unit,
 •	Development, maintenance and operational aspects of Liquidity Stress Testing were moved from Risk Analytics Unit to Financial Risk Unit,
 •	Operational aspects of Credit Stress Testing were moved from Risk Analytics Unit to Reporting &amp; Data Quality Management Unit.
-•	Default Management Section was renamed to “Credit Risk &amp; Default Management” 
-</t>
+•	Default Management Section was renamed to “Credit Risk &amp; Default Management”</t>
   </si>
   <si>
     <t>Review and update the:
@@ -4046,8 +3987,7 @@
     <t>1. Incomplete Legal Inventory
 Incomplete mapping of legal requirements in the Legal Inventory may lead to non-compliance with regulatory obligations, exposing the institution to legal, financial, and reputational risks.
 2. Inconsistent references in documentation
-Outdated or inaccurate documentation may lead to misaligned responsibilities and ineffective execution of critical risk management processes, increasing the risk of regulatory non-compliance and operational inefficiencies.
-</t>
+Outdated or inaccurate documentation may lead to misaligned responsibilities and ineffective execution of critical risk management processes, increasing the risk of regulatory non-compliance and operational inefficiencies.</t>
   </si>
   <si>
     <t>2025-061_F02-A02</t>
@@ -4135,8 +4075,7 @@
 	There were no documented controls in the Short-term Work in Switzerland procedure while reporting and threshold monitoring activities were identified. 
 	The same document stated that the trigger event for initiating the process was the employee creating an Ask HR ticket. In practice, the booking system only displayed an informational pop-up message, which did not enforce ticket creation. Instead, the process relied on voluntary employee action without any system-based enforcement.
 	The HR Officer maintains an Excel tracking list to monitor the 90-day threshold per company and alerts the HR Business Partner when 80 days are reached. However, this tracking relied solely on employee-declared trips. If employees failed to raise tickets, HR had no mechanism to detect missing declarations.
-Swiss immigration rules (FNIA and AFMP) require employers to submit a prior notification at least eight days before work starts, monitor the 90-day threshold per company and per individual, and ensure the process includes clear responsibilities and controls to guarantee complete and timely notifications.
-</t>
+Swiss immigration rules (FNIA and AFMP) require employers to submit a prior notification at least eight days before work starts, monitor the 90-day threshold per company and per individual, and ensure the process includes clear responsibilities and controls to guarantee complete and timely notifications.</t>
   </si>
   <si>
     <t>	Ensure that the initial pop-up message displayed when booking a business trip to Switzerland clearly summarizes the situations in which employees must disclose the trip. It should also outline their responsibility as the first point of disclosure when applicable.
@@ -5079,16 +5018,14 @@
 	Section 2.1.2 was outdated as it mentioned the enrichment and release of trades done via telephone; telephone trades have, however, been discontinued and were not authorized anymore. Only the trades via authorized trading platforms (360T and Bloomberg) should be enriched and released.
 	Section 6 was incomplete: it did not mention monitoring and completion of the SharePoint checklists used to evidence intraday and end-of-day trade control report reviews. IA nonetheless reviewed the process’ operating effectiveness and noted four of five sampled reports contained exceptions: none had evidence of any follow-up and the checklists were marked as completed although the end-of-day reports contained unreviewed exceptions.
 In addition, IA’s sample review of 15 Treasury Back-Office (PTB) three-times daily completeness checks (reconciling the list of trades received from Treasury Front Office with the trades booked in SAP CFM) noted that the review and conclusion of the first person performing the check were not evidenced for four items.
-According to both external and internal provisions, companies should maintain adequate safeguards and controls to ensure an effective internal control system. 
-</t>
+According to both external and internal provisions, companies should maintain adequate safeguards and controls to ensure an effective internal control system.</t>
   </si>
   <si>
     <t>	Update the Enrich Release - Treasury Back-Office User Guide by:
 -	Documenting the current process and expected documentation for end-of-day Financial Transactions (FTR) alerts.
 -	Updating section 2.1.2 to remove the enrich and release process for trades performed by telephone. 
 -	Improving the processes and controls for the monitoring of the trade control reports. The updated controls should ensure that all exceptions are reviewed and investigated by end of day
-	Review and update the completeness check process to ensure that each review is subject to a documented four-eyes principle. The documentation of each review should at least include the review performed and the conclusion reached.
-</t>
+	Review and update the completeness check process to ensure that each review is subject to a documented four-eyes principle. The documentation of each review should at least include the review performed and the conclusion reached.</t>
   </si>
   <si>
     <t>CBL Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG,Eurex Repo GmbH,LUXCSD</t>
@@ -5135,13 +5072,11 @@
   <si>
     <t>Treasury Back-Office (PTB) used SharePoint checklists to evidence their daily review and trade confirmation monitoring controls. However, filling out and monitoring the checklists was not reflected in the Enrich Release Treasury Back Office User Guide. 
 Internal Audit also reviewed the quarterly monitoring and update of the trade confirmation exception table: for one of two selected quarters during the audit period, there was no evidence that a review (and corresponding four-eyes control) was performed.
-According to both external and internal provisions, companies should maintain adequate safeguards and controls to ensure an effective internal control system. 
-</t>
+According to both external and internal provisions, companies should maintain adequate safeguards and controls to ensure an effective internal control system.</t>
   </si>
   <si>
     <t>	Update the Enrich Release - Treasury Back-Office User Guide by documenting the requirement to monitor and fill out the SharePoint trade confirmation checklist daily. 
-	Implement controls to ensure that the quarterly review of the exception table is performed, documented and subject to a four-eyes review.  
-</t>
+	Implement controls to ensure that the quarterly review of the exception table is performed, documented and subject to a four-eyes review.</t>
   </si>
   <si>
     <t>Weaknesses identified in the trade confirmation process may result in delays in trade processing. This represents a minor breach of internal and external provisions, possibly causing minor financial and reputational impacts.</t>
@@ -5205,8 +5140,7 @@
   <si>
     <t>	Develop and maintain comprehensive Bloomberg Financial Data and Market Supervision (AID243) user management documentation, covering access provisioning, modification, and de-provisioning.
 	Perform a clean-up activity on IIQ user role assignments to ensure only relevant users retain access rights to the Bloomberg Financial Data and Market Supervision application.
-	Implement a formal, periodic access review process with the vendor to ensure user permissions align with current job functions and adhere to the principle of least privilege.
-</t>
+	Implement a formal, periodic access review process with the vendor to ensure user permissions align with current job functions and adhere to the principle of least privilege.</t>
   </si>
   <si>
     <t>Johannes Beyenbach</t>
@@ -5234,8 +5168,7 @@
   </si>
   <si>
     <t>	Develop and maintain comprehensive Reuters Financial Data and Market Supervision (AID831) user management documentation, covering access provisioning, modification, and de-provisioning.
-	Assist Strategic IT Partner Management (ZJW) in performing IIQ user role assignments for Bloomberg Financial Data and Market Supervision (AID243).
-</t>
+	Assist Strategic IT Partner Management (ZJW) in performing IIQ user role assignments for Bloomberg Financial Data and Market Supervision (AID243).</t>
   </si>
   <si>
     <t>Corporate IT Applications (ZGP) agrees with the finding and recommendation, and will implement the recommendation.</t>
@@ -5245,8 +5178,7 @@
   </si>
   <si>
     <t>	Perform a clean-up activity on IIQ user role assignments to ensure only relevant users retain access rights to the Reuters Financial Data and Market Supervision application (AID831).
-	Implement a formal, periodic access review process with the vendor to ensure user permissions align with current job functions and adhere to the principle of least privilege.
-</t>
+	Implement a formal, periodic access review process with the vendor to ensure user permissions align with current job functions and adhere to the principle of least privilege.</t>
   </si>
   <si>
     <t>Jonas Ullmann</t>
@@ -5315,8 +5247,7 @@
 -	For TCM, active feedback flows exist only for four IT applications (Cascade, RTS, NCCIP, CFCL). Other sources (e.g., LIM/SPOC, HUB IFS, VESTIMA, CUSTODY, CreationDirect) lack reconciliation or alternative validation mechanisms.
 -	Current checks are ad hoc during test phases or system changes, not systematic or continuous.
 IA acknowledges that reconciliation was done ad hoc randomly during test phases for the June and November releases, or whenever an existing source was modified. This included communicating identified improvement opportunities and creating respective UHD (User Help Desk) and JIRA tickets for their implementation.
-Missing, abbreviated, placeholder, and fragmented names prevent accurate sanctions screening, creating a high risk of regulatory non-compliance and increased potential for regulatory fines. Additionally, inconsistent and fragmented data (e.g., mixed formats, technical tags, and department names) undermines screening accuracy, increases false positives, and signals weak data governance, exposing the organization to operational inefficiencies. Lastly, no reconciliation controls increases the risk that erroneous or incomplete data transfers go undetected, potentially resulting in missed transactions or counterparties screening  .
-</t>
+Missing, abbreviated, placeholder, and fragmented names prevent accurate sanctions screening, creating a high risk of regulatory non-compliance and increased potential for regulatory fines. Additionally, inconsistent and fragmented data (e.g., mixed formats, technical tags, and department names) undermines screening accuracy, increases false positives, and signals weak data governance, exposing the organization to operational inefficiencies. Lastly, no reconciliation controls increases the risk that erroneous or incomplete data transfers go undetected, potentially resulting in missed transactions or counterparties screening  .</t>
   </si>
   <si>
     <t>Ensure that the data, Group Sanctions receive, is suitable for screening and proactively engage with data owners, tools, or parties delivering the data, to request corrections or cleaning when issues are identified.
@@ -5325,8 +5256,7 @@
 -	Identifying and correcting records with blank, placeholder, initials-only, or corrupted values in the NAME field.
 -	Replace Business Partner IDs with actual names where available.
 	Remove automation/system tags and department names from sanction screening scope. Establish periodic “Name” field data quality review, including identification of missing, abbreviated, placeholder, and fragmented names and escalation channels to relevant stakeholders for repeated data issues identified.
-	Establish a process for follow-up and escalation to ensure data issues are addressed at root in a timely manner.
-</t>
+	Establish a process for follow-up and escalation to ensure data issues are addressed at root in a timely manner.</t>
   </si>
   <si>
     <t>Gabriel Gaube</t>
@@ -5341,8 +5271,7 @@
     <t>Data quality and integrity weaknesses in sanctions screening processes may lead to sanctions violations and therefore have serious adverse regulatory impact such as public sanctions and high potential for extra regulatory reporting requirements. Furthermore, it may lead to serious reputational damage such as potential negative publicity. Lastly, it represents serious violations of internal and external provisions. 
 Applicable OpRisk scenarios: 
 	DBAG_028- Sanctions AML&amp;CTF max EUR 20 m loss
-	ORS_C_BP007 Sanctions Violations Generic max EUR 162,780 m loss
-</t>
+	ORS_C_BP007 Sanctions Violations Generic max EUR 162,780 m loss</t>
   </si>
   <si>
     <t>2025-070_F01-A02</t>
@@ -5351,8 +5280,7 @@
     <t>Implement a comprehensive reconciliation mechanism across all relevant data sources, products and systems involved in sanctions list screenings. This mechanism should actively and systematically validate the integrity and completeness of critical transactions and customer data, detect mismatches and ensure prompt remediation. For that purpose, consider implementing a reconciliation mechanism including the following:
 	Active feedback flows for all data sources and products within STOP/SMON and STOP/TCM to ensure ongoing validation of data accuracy and completeness.
 	Checksum or hash validations on data files to detect any tampering or incomplete transfers during transmission.Automated transaction counting and logging at both the source system and SMON/TCM to facilitate detection of mismatches or missing records.
-	Alert   mechanism that triggers notifications upon identification of discrepancies enabling prompt investigation and resolution.
-</t>
+	Alert   mechanism that triggers notifications upon identification of discrepancies enabling prompt investigation and resolution.</t>
   </si>
   <si>
     <t>Group Sanctions (ZHB) as a data receiving unit, agrees to implement data validation measures as recommended, but does not accept data ownership of source systems, who are ultimately responsible for quality management of their data. Data owners have not been addressed with respect to identified data quality issues.</t>
@@ -5394,8 +5322,7 @@
 a) monitor local requirements in addition to those monitored centrally by Group Sanctions;
 b) train local staff on applicable requirements of those jurisdictions.
 IA acknowledges that the above points are outcomes of the review performed on the centrally outsourced Group Sanctions processes and that there might be additional activities for single legal entities in the Group, which were not in scope of this audit.  
-European regulation require organizations to establish a structured approach to identify, assess, and mitigate sanctions-related risks, ensure effective communication of risk assessments to relevant staff and provide regular, role-specific, and targeted training to employees exposed to heightened sanctions risk. This is further supported by internal requirements of clearly defined 1LoD responsibilities to understand and apply sanctions requirements. 
-</t>
+European regulation require organizations to establish a structured approach to identify, assess, and mitigate sanctions-related risks, ensure effective communication of risk assessments to relevant staff and provide regular, role-specific, and targeted training to employees exposed to heightened sanctions risk. This is further supported by internal requirements of clearly defined 1LoD responsibilities to understand and apply sanctions requirements.</t>
   </si>
   <si>
     <t>	Define and implement a Target Operating Model (TOM) (e.g., Sanctions Officer role, to be appointed by Legal Entities adopting Group Sanctions written rules). The TOM shall include, but not be limited to:
@@ -5403,8 +5330,7 @@
 -	Identify the relevant 1LoD teams’ training needs and develop a structured and regular training program tailored to their roles and risk exposures, to reinforce accountability and practical application.
 -	Establish a process of regular communication with the local Branch Managers and Compliance Officers of their responsibility to i) monitor local requirements in addition to those monitored centrally by Group Sanctions (if outsourced); ii) train local staff on applicable requirements of those jurisdictions.
 	Propose a structured approach to identifying areas with heightened risk of non-compliance with sanctions and embargoes regimes, including comprehensive overview of items subject to sanctions screening. In cases where areas decide not to implement the TOM, document the rationale given by the respective stakeholders. 
-	Evaluate and expand the risk assessment questionnaire to include explanation on the selected ratings and to include evidence of detailed analysis of business-specific processes or identifying items subject to sanctions screening (e.g., securities, non-business relationship types).
-</t>
+	Evaluate and expand the risk assessment questionnaire to include explanation on the selected ratings and to include evidence of detailed analysis of business-specific processes or identifying items subject to sanctions screening (e.g., securities, non-business relationship types).</t>
   </si>
   <si>
     <t>Group Sanctions (ZHB) accepts the recommendations and will implement them accordingly. However, since no sanctions risk has materialized from this finding, Group Sanctions does not agree to the high severity of the finding. Furthermore, operating model weaknesses spotted in single LE’s should be addressed to the actual individual owner instead of comprehensively to the Group function.</t>
@@ -5428,8 +5354,7 @@
 	No formalized process/control to ensure that the “quick decide” functionality was not misused.
 	No documentation on the cases in which the function may be used.
 The functionality has been in place since 2015. IA’s review of TCM/SMON data noted that it was used only in cases related to Politically Exposed Persons (PEP) alert clearing as these are subject to four-eye principle in SAP. No alerts related to sanctions have been processed using this functionality during the timeframe under review. 
-IA acknowledged that at the time of the issuance of this report, presentation for the Management was prepared and limitations about the usage of the “Quick Decide” functionality were included in the respective guidelines.
-</t>
+IA acknowledged that at the time of the issuance of this report, presentation for the Management was prepared and limitations about the usage of the “Quick Decide” functionality were included in the respective guidelines.</t>
   </si>
   <si>
     <t>	Perform a risk assessment of the “Quick decide” functionality, identify the inherent risk and the respective controls in place to ensure that the residual risk is within the acceptable level. 
@@ -5437,8 +5362,7 @@
 	Ensure that the formalized process is communicated to the relevant stakeholders 
 	Communicate to senior management the functionality, the inherent risk, respective controls and residual risk and ensure they acknowledge the functionality and the residual risk.
 	Ensure that the residual risk is well understood and accepted by senior management.
-The recommendation has been adequately addressed before issuance of the audit report
-</t>
+The recommendation has been adequately addressed before issuance of the audit report</t>
   </si>
   <si>
     <t>CBL Luxembourg,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,LUXCSD</t>
@@ -5464,13 +5388,11 @@
   <si>
     <t>It was noted the rights “Rules Management (Completion)” and “Rules Management (Confirmation)” were required to change, modify and approve check rules (i.e., STOP alerts) for both STOP/TCM and STOP/SMON. These rights were assigned via the profile “Group Compliance Management” and “Systemadministrator”. Internal Audit (IA) assessed that the assignment of the “Group Compliance Management” profile to one user account was inappropriate.
 IA positively acknowledges that an ad-hoc recertification of assigned access rights occurred upon IA’s notification, and the “Group Compliance Management” profile was removed from the affected user account on November 7, 2025. IA also recognizes that segregation of duties was maintained through the implementation of a four-eyes principle, ensuring that completion and confirmation of new or changed rules were validated by two independent authorized individuals.
-According to relevant regulatory standards and best practices, financial institutions are required to implement appropriate mechanism for the assignment, review and recertification of user access rights. This ensures that permissions are strictly aligned with job responsibilities and supports the principle of least privilege.
-</t>
+According to relevant regulatory standards and best practices, financial institutions are required to implement appropriate mechanism for the assignment, review and recertification of user access rights. This ensures that permissions are strictly aligned with job responsibilities and supports the principle of least privilege.</t>
   </si>
   <si>
     <t>Ensure that recertification of access rights is performed with the necessary diligence and care, following the defined process, to confirm that all privileges are current, justified and limited to authorized personnel only.
-The recommendation has been adequately addressed before issuance of the audit report
-</t>
+The recommendation has been adequately addressed before issuance of the audit report</t>
   </si>
   <si>
     <t>Inadequate permission assignments to modify, create, delete STOP check rules could result in missed or improperly screened sanctioned transactions or counterparties. This may lead to undetected regulatory breaches and unauthorized dealings with sanctioned entities, exposing the institution to minor financial impact and limited reputational or legal consequences, including potential fines and enforcement actions.</t>
@@ -5656,14 +5578,12 @@
 -	conducting quarterly screening for potentially applicable regulatory developments. 
 -	Initiation of an annual review.
 However, Group Compliance neither conducted the screening activities for specific tax-related laws which applied due to ECAG’s business model, and the specific financial services provided nor did the LI maintained by Group Compliance generally contain such specific tax-related laws.
-Legislation does not clearly define the scope of coverage of the Compliance function. Commentary indicates that the scope should include areas that contain compliance risks that the entity considers material and which are specific to the business model and not already covered by specialist areas. 
-</t>
+Legislation does not clearly define the scope of coverage of the Compliance function. Commentary indicates that the scope should include areas that contain compliance risks that the entity considers material and which are specific to the business model and not already covered by specialist areas.</t>
   </si>
   <si>
     <t>	Revisit the policy and assess whether MLR for taxes should be added.
 	Update the related documentation as required, including Group Compliance (GC)’s policy, the related process documentation and SDS to explicitly specify the scope with regard to industry-specific tax laws.
-	Explicitly inform the relevant legal entities of such clarified scope of services provided by GC.
-</t>
+	Explicitly inform the relevant legal entities of such clarified scope of services provided by GC.</t>
   </si>
   <si>
     <t>Miriam Schmitz</t>
@@ -5692,15 +5612,13 @@
   <si>
     <t>Internal Audit found that ECAG lacked a documented framework and defined roles and responsibilities for its operational tax law inventory.
 Instead of using the designated regulatory monitoring tool (RegMon with AID886), ECAG used an incomplete Excel spreadsheet. This spreadsheet failed, for example, to list all affected units for US operational taxes and omitted several business units with operational tax-related responsibilities.
-According to external regulation and DBG requirements, an institution shall have in place a proper business organization which ensures compliance with the legal provisions as well as the business requirements by the institution. To have an effective process to enable compliance, the entity needs a central legal inventory, an ongoing monitoring process and an independent control framework. A legal entity’s legal inventory should capture material laws and regulations and contain related (process) documentation, corresponding implementing responsibilities including insourcing units and risk assessments on potential non-compliance. 
-</t>
+According to external regulation and DBG requirements, an institution shall have in place a proper business organization which ensures compliance with the legal provisions as well as the business requirements by the institution. To have an effective process to enable compliance, the entity needs a central legal inventory, an ongoing monitoring process and an independent control framework. A legal entity’s legal inventory should capture material laws and regulations and contain related (process) documentation, corresponding implementing responsibilities including insourcing units and risk assessments on potential non-compliance.</t>
   </si>
   <si>
     <t>	Establish a documented framework for its operational tax law inventory, defining processes, roles, and responsibilities.
 	Migrate the operational tax law inventory from Excel to the RegMon  (AID886) application.
 	Ensure the new inventory in RegMon includes all relevant business units involved and that the new inventory is monitored regularly.
-	Correct any procedural documentation to accurately reflect operational tax-related responsibilities.
-</t>
+	Correct any procedural documentation to accurately reflect operational tax-related responsibilities.</t>
   </si>
   <si>
     <t>Jens Janka</t>
@@ -5728,15 +5646,13 @@
 The topic was brought forward and discussed in July 2024 with Group Legal (GL), who recommended amending the CC, but thereafter no further decisions or related action were taken. GL also indicated that the forwarding of fines and/or penalties could be limited if ECAG did not fulfil its related obligation(s).
 The CC contained the obligation that ECAG immediately notify the Executive Board (EB) of Eurex Deutschland and the respective CM as soon as ECAG becomes aware that a CM is not complying with its reporting obligations. These consist of submitting reports related to potential section 871(m) IRC transactions, as applicable, to ECAG by the 10th calendar day of the subsequent month. ECAG had a related annual reporting obligation to the IRS.
 Although ECAG was aware that certain CMs were not complying with this monthly obligation, ECAG had not (immediately) notified the EB of Eurex Deutschland of such cases. Also, this EB notification requirement was not contained in the corresponding process documentation.
-Also, some CMs were granted extensions for monthly submissions. However, such exceptions were neither defined in the CC nor in the corresponding process documentation. 
-</t>
+Also, some CMs were granted extensions for monthly submissions. However, such exceptions were neither defined in the CC nor in the corresponding process documentation.</t>
   </si>
   <si>
     <t>Related to Quality Management &amp; Control operational tax-related responsibilities:
 	Examine the ECAG Clearing Conditions (CC) and inform Product Tax Services CCP (PTA) of any existing operational tax-related non-compliances, including what was mentioned in the finding text.
 	Cooperate and align with PTA and other relevant parties, such as Group Legal, on required action, such as complying with the current CC or rephrasing the CC.
-	If the resulting action requires revising the process documentation, incorporate adequate revisions into the process documentation to achieve alignment with the published CC.
-</t>
+	If the resulting action requires revising the process documentation, incorporate adequate revisions into the process documentation to achieve alignment with the published CC.</t>
   </si>
   <si>
     <t>Janine Roszak</t>
@@ -5755,8 +5671,7 @@
 -	that provide a solid legal basis for the forwarding of fines and/or penalties from the IRS out of sec.871(m) IRC reporting obligations to the responsible Clearing Members (CMs)
 -	related to any existing operational tax-related non-compliances as communicated by Quality Management &amp; Control (DDJ). PTA has the right to reject or amend these changes if they contradict processes or, for example, the QI Agreement.
 	Ensure that the resulting provisions and adequate revisions are incorporated into the CC, which are then submitted for approval and published.
-	Make amendments to process documentation of PTA and inform other relevant units, if applicable.
-</t>
+	Make amendments to process documentation of PTA and inform other relevant units, if applicable.</t>
   </si>
   <si>
     <t>Gregor Meub</t>
@@ -5785,13 +5700,11 @@
 	Two note documents existed with instructions for determining the monthly values for the KRI with insufficient granularity. 
 The related OpRisk scenario ECAG_102 - Product Tax Risk also contained the unconcise wording of non-banks and Repos relating to the KRI, similar to above.
 For the KRIs ECAG_PTS_05 and ECAG_PTS_06 related to Transaction Reporting Delivery Time, a definition of the values that relate to the amber and red thresholds was lacking. A definition was essential to understand the unit of measure which was “count”. Upon completion of the audit, these KRIs had become obsolete and removed as the related risk was deemed insignificant.
-According to European regulation, a CCP shall have effective processes and establish documented policies, procedures and systems that identify, measure, monitor and manage such risks. Business activities must be conducted based on written procedures. They should include, but not be limited to, a complete and up-to-date description of processes that clearly defines relevant roles, responsibilities, risks and related controls.
-</t>
+According to European regulation, a CCP shall have effective processes and establish documented policies, procedures and systems that identify, measure, monitor and manage such risks. Business activities must be conducted based on written procedures. They should include, but not be limited to, a complete and up-to-date description of processes that clearly defines relevant roles, responsibilities, risks and related controls.</t>
   </si>
   <si>
     <t>	For the key risk indicator (KRI) ECAG_PTS_07, correct the title, reference the supporting documentation and increase the granularity of the instructions for determining the monthly values.
-	Correct the wording of non-banks and Repos relating to the KRI in the related OpRisk scenario ECAG_102 - Product Tax Risk.
-</t>
+	Correct the wording of non-banks and Repos relating to the KRI in the related OpRisk scenario ECAG_102 - Product Tax Risk.</t>
   </si>
   <si>
     <t xml:space="preserve">Weaknesses related to key risk indicators represent a serious gap in external and internal provisions. They could lead to inaccurate and incomplete risk assessment and monitoring, e.g. in case of changes in key staff. This could result in undetected emerging risks, ineffective risk mitigation strategies, and potential regulatory reporting errors. </t>
@@ -5898,15 +5811,13 @@
 	unclear role definition and differences in business admin and business user roles, both being able to change data rules/mapping or data fields directly
 	personnel outside "Supervisory Reporting Projects &amp; Products" with access to business admin roles in Regulatory Reporting (AID076) (Abacus360 - Production - Business Admin, MFDB2-Profile (7907100301) Profile - RGR-AURORA - Business Admin RWF)
 	personnel of "Supervisory Reporting Projects &amp; Products" with access to business user roles in Regulatory Reporting (AID076) and SOFiE (AID647) applications
-European, German and Luxembourg require that the organization shall manage access rights to information assets and their supporting systems on a need-to-know basis and under the least privilege model.
-</t>
+European, German and Luxembourg require that the organization shall manage access rights to information assets and their supporting systems on a need-to-know basis and under the least privilege model.</t>
   </si>
   <si>
     <t>	Define the roles of the team of Supervisory Reporting Projects &amp; Product (FAS) within the regulatory reporting processes and applications.
 	Adjust the roles in underlying applications accordingly from design and description perspective.
 	Review and correct any identified role duplicate or unnecessary access rights.
-	Evaluate the need for review controls on audit log of manual changes performed in production environments.
-</t>
+	Evaluate the need for review controls on audit log of manual changes performed in production environments.</t>
   </si>
   <si>
     <t>CBL Luxembourg,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Repo GmbH,Group IT Audit,LUXCSD</t>
@@ -5942,15 +5853,13 @@
 	Incorrect Tier assigned to IT user admin role (3 instead of 1) 
 In addition, the application lacked Entitlements Composition Details being documented as required by internal requirements (Identity and Access Management Guideline and DAC User Guide)
 Decommissioning of the old roles has been initiated before finalization of the audit report and the roles will be removed before year end.
-In line with the German, Luxembourg regulations and internal requirements, user access roles shall ensure that users are designed in the tools according to the least access principle, that the segregation of duties is observed and that staff conflicts of interest are avoided.
-</t>
+In line with the German, Luxembourg regulations and internal requirements, user access roles shall ensure that users are designed in the tools according to the least access principle, that the segregation of duties is observed and that staff conflicts of interest are avoided.</t>
   </si>
   <si>
     <t>	Review and decommission any unused role related to Regulatory Reporting application (AID076) in the Identity and Access Management tools.
 	Review and update Segregation of Duties tags for all remaining Regulatory Reporting application (AID076) roles in cooperation with business owner.
 	Review and update tiering information for all relevant Regulatory Reporting application (AID076) roles.
-	Document Entitlements Composition Details, and if needed, update the entitlement and roles descriptions accordingly.
-</t>
+	Document Entitlements Composition Details, and if needed, update the entitlement and roles descriptions accordingly.</t>
   </si>
   <si>
     <t>Walter Pulte</t>
@@ -5997,8 +5906,7 @@
   </si>
   <si>
     <t>- Update the DBG Physical Security Event Risk Management Procedure to define the escalation or decision-making process when mandatory security controls cannot be implemented during corporate event setup or execution. The process should ensure that, if significant residual physical security risk remains, any decision to accept or mitigate the risk is reviewed and validated at an appropriate management level beyond the risk owner, to ensure that high-risk exceptions are transparently assessed and properly managed.
-- Ensure effective communication of the new process to all relevant stakeholders.
-</t>
+- Ensure effective communication of the new process to all relevant stakeholders.</t>
   </si>
   <si>
     <t>Moritz Dierkes, Winfried Ries, David Krüger</t>
@@ -6146,8 +6054,7 @@
 	The DLP control system lacks a foundation in a comprehensive, systematic, and documented risk assessment, failing to adequately address two key aspects: 
 -	Data leakage paths: The current IT application-based risk assessment lacks a strategic DLP approach, resulting in incomplete identification and management of key data leakage risks. For example, some file types in use (e.g., .csv) lack classification requirements; email blocking controls are limited to Excel and strictly confidential files only and can easily be circumvented. See also finding 2025-099_F04 for further details. 
 -	Data processing risks outside dedicated IT tools: Due to limited system functionality or lacking customer/service/user features, many business processes rely on manual data handling outside of dedicated IT tools e.g., within IDP’s. This lack of system integration prevents effective data flow controls, increasing the risk of errors and malicious activity, especially when data is shared externally via email. Also, reliance on IDP solutions and manual activities introduces an additional risk layer. Recent data leakage incidents demonstrated this, with IDP malfunction identified as one of the root causes. This lack of resilience and scalability creates multiple points of failure in the business processes, particularly under pressure. Strategic DLP approaches and risk assessments must specifically address these vulnerabilities. 
-European, German and Luxembourg regulation and guidance require financial entities continuously identify all ICT risk sources. In accordance with their ICT risk management framework, they shall minimize the ICT risk impact by deploying appropriate strategies, policies, procedures, protocols and tools. Appropriate technical and organizational measures shall be implemented to ensure a level of security appropriate to the risk. The IT systems, the related processes and other information domain elements shall ensure data confidentiality.
-</t>
+European, German and Luxembourg regulation and guidance require financial entities continuously identify all ICT risk sources. In accordance with their ICT risk management framework, they shall minimize the ICT risk impact by deploying appropriate strategies, policies, procedures, protocols and tools. Appropriate technical and organizational measures shall be implemented to ensure a level of security appropriate to the risk. The IT systems, the related processes and other information domain elements shall ensure data confidentiality.</t>
   </si>
   <si>
     <t>In liaison with other stakeholders from the 2LoD and 1LoD, establish a comprehensive data leakage prevention (DLP) strategy to effectively manage the data leakage risk. In particular, this should include a staggered approach for mitigating the data leakage risk to accommodate tactical and strategic measures including:
@@ -6160,8 +6067,7 @@
 -	leverage on the possible communication channel scanning capabilities for e.g., email scanning 
 -	prevent/detect circumvention of email DLP controls by renaming file extensions and changing labels.
 	Define a high-level guidance for identification and documenting of the most critical data (“data crown jewels”).
-	Establish the data flow registry as overview of all data flows related to data crown jewels in at least the relevant entities listed in this finding (2025-099_F01).
-</t>
+	Establish the data flow registry as overview of all data flows related to data crown jewels in at least the relevant entities listed in this finding (2025-099_F01).</t>
   </si>
   <si>
     <t>Chief ICT Risk Officer / CISO (ICT) agrees with the finding and recommendation, and will implement the recommendation.</t>
@@ -6196,8 +6102,7 @@
 	Determine suitable processes and technical preventive controls based on business definitions.
 	Implement effective oversight measures to monitor control effectiveness and detect breaches.
 	Update the IT asset risk assessment process to include the results of the DLP risk assessment.
-	Define and support implementation of a plan for assessment of manual data handling and external sharing processes which create the most significant impact on DLP risks. The goal is to identify possible enhancements, ideally systemic IT solutions which can be offered within DBG. 
-</t>
+	Define and support implementation of a plan for assessment of manual data handling and external sharing processes which create the most significant impact on DLP risks. The goal is to identify possible enhancements, ideally systemic IT solutions which can be offered within DBG.</t>
   </si>
   <si>
     <t>2025-099_F02</t>
@@ -6223,8 +6128,7 @@
 	Provide design and implementation roadmap of mandatory Data Leakage Prevention training module covering motivation, data types, data handling procedures, and real-world company-specific examples of data misuse and consequences.
 	Provide design and implementation roadmap of company-specific and role-based training program for specific roles, prioritizing client-facing staff.
 	Provide design and implementation roadmap of mandatory Data Leakage Prevention training as part of the onboarding process, including Data Leakage Prevention policies and their connection to daily tasks.
-	Ensure that Data Leakage Prevention trainings effectiveness is reflected in cybersecurity training metrics.
-</t>
+	Ensure that Data Leakage Prevention trainings effectiveness is reflected in cybersecurity training metrics.</t>
   </si>
   <si>
     <t>Predrag Adamovic</t>
@@ -6256,8 +6160,7 @@
 	Evaluate and expand coverage to further relevant incident types, especially data leakage i.e., also include non-ICT relevant incident types 
 	Review the established RACI and call trees for ICT incident management to also include relevant contact persons / duty managers from businesses/functions/LEs, as well as central functions (e.g., Legal, Compliance, Data Protection, CISO and other key stakeholders), required for the management of the added incident types
 	Enhance RACI within the procedure for handover of relevant classified incidents to the predefined responsible business areas or individuals for end-to-end management and resolution (incident manager role and responsibilities must be clearly defined for each incident management process step), with the CERT maintaining an oversight role if needed 
-	Include the central incident entry point / dispatcher role in the ICT incident procedure as and when defined
-</t>
+	Include the central incident entry point / dispatcher role in the ICT incident procedure as and when defined</t>
   </si>
   <si>
     <t>Boris Link, Sean Mc Taggart, Dafina Polloshka Vrenezi</t>
@@ -6277,8 +6180,7 @@
   <si>
     <t>Establish a centralized incident management entry point:
 	Ensure a swift and organized initial response by designating the CERT (Cyber Emergency Response Team) as the central entry point (dispatcher) for all incident types according to the revised ICT incident management procedure (see recommendation F03-A01) to perform the initial track setting (assignment of incident manager and initial information of predefined stakeholders as provided by IT Governance, Risk and Transformation [IRT] depending on the type of the incident).
-	Promote the contact details of the CERT as entry point (dispatcher) for all relevant incident types.
-</t>
+	Promote the contact details of the CERT as entry point (dispatcher) for all relevant incident types.</t>
   </si>
   <si>
     <t>Hinrich Völcker, Olga Wenge</t>
@@ -6380,8 +6282,7 @@
 	Missing target group definition for IT-roles: Adjust the template to include a field for documenting the intended target group for IT-roles.
 	Incomplete controls on IT-role changes: Define guidance for the manual TQR checks whether IT-role changes are “minor”, and define the scope for the automated controls performed in Nexis to identify IT-role purpose changes. Integrate the definition and requirements for role purpose changes into the written rules.
 	Missing involvement of information owner in annual review: Adjust the annual review workflow to include sufficient involvement of using legal entity information owners or their delegates also in case there are no changes to the DAC.
-	Missing guidance for performance of quality assurance reviews: Strengthen quality assurance of DACs to ensure consistent application of the requirements. Besides providing detailed guidance for performance of quality assurance reviews, proper training and oversight of TQR activities, consider implementing a central quality control for at least the initial creation of DACs as part of AMELI.
-</t>
+	Missing guidance for performance of quality assurance reviews: Strengthen quality assurance of DACs to ensure consistent application of the requirements. Besides providing detailed guidance for performance of quality assurance reviews, proper training and oversight of TQR activities, consider implementing a central quality control for at least the initial creation of DACs as part of AMELI.</t>
   </si>
   <si>
     <t>CBL Luxembourg,Clearstream Europe AG,Clearstream Holding AG,Deutsche Börse AG,ECC AG,Eurex Clearing AG,Group IT Audit</t>
@@ -6409,8 +6310,7 @@
   </si>
   <si>
     <t>When a request in DBG’s access rights management system SailPoint IIQ involves the need for manual assignments or revocations of access rights, IIQ creates “work items” for the respective administrators. BaFin criticized that the time period for sending out reminders for overdue work items after 7 days is too long. To address this issue, the reporting and escalation process for work items was adjusted to send out a daily reminder to the corresponding line manager as well as to the asset owner, and a summary report to the Legal Entity COO on a monthly basis. 
-However, unresolved work items will not be escalated, but automatically deleted after 10 days if they are not flagged as solved by the responsible administrator of the target system, and a new work item will be created for the same underlying case. As a result, also the summary report to the Legal Entity COO would contain incorrect average work item processing times.
-</t>
+However, unresolved work items will not be escalated, but automatically deleted after 10 days if they are not flagged as solved by the responsible administrator of the target system, and a new work item will be created for the same underlying case. As a result, also the summary report to the Legal Entity COO would contain incorrect average work item processing times.</t>
   </si>
   <si>
     <t>Adjust the work items management process to ensure that unsolved work items (at least referring to the disabling, deletion and deprovisioning activities) are not automatically closed and a new work item instead is created. Moreover, implement a tracking function for long-term overdue work items.</t>
@@ -6439,16 +6339,14 @@
 However, a guidance/best practice for documentation and checking the composition for the technical quality reviewer (TQR) was missing.
 	Missing oversight control for non-onboarded IIQ assets: For non-onboarded IIQ assets an oversight IT asset management control [ITAM#42] was implemented by the IT Governance department. However, this control only checks on a sample basis if the asset owners have established an adequate manual recertification. Other IAM requirements like reconciliation [IAM-3], CSV data quality [IAM-2], SoD for data provisioning [IAM-11], etc. are not in scope of this control and therefore not checked.
 	Missing reporting: For assets onboarded to IIQ, the recertification is automatically performed on a bi-annual basis, respectively the reconciliation is automatically performed on a daily basis. Moreover, the IIQ onboarding status is available in APMS.	
-However, a reporting regarding the performance of recertification and reconciliation is not available for assets not onboarded to IIQ. Moreover, a process design for analyzing and processing such reports on legal entity side was not available.
-</t>
+However, a reporting regarding the performance of recertification and reconciliation is not available for assets not onboarded to IIQ. Moreover, a process design for analyzing and processing such reports on legal entity side was not available.</t>
   </si>
   <si>
     <t>	Perform a re-assessment under involvement of Technical Information Security Officer (TISOs) and asset owners for the remaining 60 CSV-onboarded applications regarding the risks “SoD” and “data quality”. Depending on the outcome, define additional controls for both risk categories.
 	Adjust the reminder interval for the CSV timestamp from 5 to 3 days and enlarge the scope to all DBG applications.
 	Implement a control to ensure that identified mismatches during the reconciliation are adequately processed as a ticket.
 	Implement a new oversight control or adjust the existing oversight control to ensure that IAM control requirements, defined in the IAM guideline, for assets not onboarded to IIQ are checked for compliance.
-	Establish a regular reporting regarding recertification and reconciliation for assets not onboarded to IIQ towards relevant legal entities and define a process for the analysis and processing of those reports on legal entity side.
-</t>
+	Establish a regular reporting regarding recertification and reconciliation for assets not onboarded to IIQ towards relevant legal entities and define a process for the analysis and processing of those reports on legal entity side.</t>
   </si>
   <si>
     <t>Incomplete control design for reconciliation process may lead to incorrectly configured roles or inadequate access rights provisioning, which in turn may result in security breaches through unauthorized access and data breaches due to misuse of user accounts. This may expose the company to minor financial and operational impact.</t>
@@ -6471,13 +6369,11 @@
 o	Servers: 756 (9%) out of 8,266
 o	Storage: 97 (7%) out of 1,484
 The corresponding measure LAM_02.03.04 was reported to CSSF as resolved.
-European, German, and Luxembourg regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.
-</t>
+European, German, and Luxembourg regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.</t>
   </si>
   <si>
     <t>	Design and document monitoring controls and ensure audit trail mechanisms are implemented, along with the baseline CMS data and ownership roles – including measures to reduce dependence on a single individual. (Implementation will be reviewed as part of Operational Effectiveness validation)
-	Design and document a control to ensure onboarding monitoring fully covers all infrastructure assets from CMS, namely by using the planned automated data sync. (Implementation will be reviewed as part of Operational Effectiveness validation)
-</t>
+	Design and document a control to ensure onboarding monitoring fully covers all infrastructure assets from CMS, namely by using the planned automated data sync. (Implementation will be reviewed as part of Operational Effectiveness validation)</t>
   </si>
   <si>
     <t>Deficiencies in the infrastructure asset onboarding and monitoring process may result in incomplete visibility over infrastructure assets, leading to inaccurate recertification data input, inaccurate reporting, and non-compliance with regulatory requirements. This may cause material reputational damage, adverse regulatory impact, and violation of internal and external provisions.</t>
@@ -6502,13 +6398,11 @@
 o	Entitlements bundling (section 4.2.1): Multiple entitlements may be aggregated into clusters. In the absence of controls, this may result in toxic combinations being bundled together, increasing the risk of excessive or conflicting access rights.
 o	Filtering of accounts/entitlements in IIQ (section 4.2.2): Certain accounts, such as the ‘root’ user in Linux environments, are excluded from recertification via filtering. No control exists to prevent intentional or inadvertent misuse of this feature, such as excluding privileged users.
 o	Filtering out in recertification campaigns (section 4.2.2): Infrastructure access rights can be filtered during recertification, allowing them to be aggregated and displayed in IIQ without requiring validation. This may lead to privileged entitlements being excluded from recertification, compromising access governance.
-European, German, and Luxembourgish regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.
-</t>
+European, German, and Luxembourgish regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.</t>
   </si>
   <si>
     <t>	Detail the monitoring control over the entitlement clustering process outlined in section 4.2 of the document “Identity and Access Management Infrastructure Assets – Procedures for Account and Permission Management with IIQ - 0.3”. This should include detailed guidance on how to review the clustering Infrastructure Asset entitlements to ensure appropriateness, including specificities of Infrastructure Asset entitlements. This should be incorporated into the user guide and the checklist.
-	Develop and document the detailed process by which Infrastructure Asset accounts or entitlements are excluded from IIQ and subsequently omitted from the recertification workflow, along with respective roles and responsibilities, and where and how it must be evidenced.
-</t>
+	Develop and document the detailed process by which Infrastructure Asset accounts or entitlements are excluded from IIQ and subsequently omitted from the recertification workflow, along with respective roles and responsibilities, and where and how it must be evidenced.</t>
   </si>
   <si>
     <t>Gaps in infrastructure assets’ entitlement reduction process may result in excessive or inappropriate access, undermining segregation of duties and increasing the risk of privilege misuse, regulatory non-compliance, and reputational damage.</t>
@@ -6532,14 +6426,12 @@
 o	All 137,443 entries lacked identifiable account owner information, and description hindering the ability of decision-makers to assess the appropriateness of access, and audit traceability, which may result in non-compliance to internal and external provisions.
 •	Role Owner Recertification (March 2025):
 o	All 137,183 entries lacked identifiable account owner information, and description hindering the ability of decision-makers to assess the appropriateness of access, and audit traceability, which may result in non-compliance to internal and external provisions.
-European, German, and Luxembourgish regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.
-</t>
+European, German, and Luxembourgish regulations require organizations to implement robust access control mechanisms and conduct regular recertification of user access rights to ensure that only authorized individuals retain access to sensitive systems and data.</t>
   </si>
   <si>
     <t>Design, document, and implement controls in the infrastructure assets recertification to:
 	Enforce mandatory justification comments with minimum adequacy requirements.
-	Ensure account owner and description are part of the recertification campaign and can be evidenced for any recertification entry in the output recertification data.
-</t>
+	Ensure account owner and description are part of the recertification campaign and can be evidenced for any recertification entry in the output recertification data.</t>
   </si>
   <si>
     <t>Clearstream Europe AG,Clearstream Holding AG,Deutsche Börse AG,ECC AG,Eurex Clearing AG,Group IT Audit</t>
@@ -6563,14 +6455,12 @@
     <t>Internal Audit identified weaknesses in the solution of process design for sub-finding [194/195g] within the AMELI IAM-7 package related to the “volume of manual checks of sessions with privileged accounts (referred to as “Tier-0”)”.
 Reviewing privileged account sessions is essential and crucial to detect misuse or compromise, comply with regulations, prevent data breaches, investigate security incidents, and train users by providing complete visibility into critical actions performed by administrators and other high-privilege users. 
 BaFin had criticized that the sample size of 10% for manual check of sessions with privileged accounts (referred to as "Tier 0") was rated as not appropriate. Also, the organization’s risk appetite in this regard was inadequate and needed adjustment.
-The solution design description neither clearly explained the risk-oriented approach to addressing more of all T0 sessions manual review, significantly exceeding the 10% baseline nor did it address the criterion on which of the most critical sessions will be manually reviewed on priority if there was an influx of sessions i.e. approach with (significantly) higher percentages of session monitoring samples where the risk is higher. Further, the solution did not consider that minimum sample sizes also need to be ensured from the perspective of each legal entity, not only from an overall Group perspective. Thus, the solution design was missing requirements for minimum threshold, rendering the approach incomprehensible for the third party and definition of done was insufficiently justified. 
-</t>
+The solution design description neither clearly explained the risk-oriented approach to addressing more of all T0 sessions manual review, significantly exceeding the 10% baseline nor did it address the criterion on which of the most critical sessions will be manually reviewed on priority if there was an influx of sessions i.e. approach with (significantly) higher percentages of session monitoring samples where the risk is higher. Further, the solution did not consider that minimum sample sizes also need to be ensured from the perspective of each legal entity, not only from an overall Group perspective. Thus, the solution design was missing requirements for minimum threshold, rendering the approach incomprehensible for the third party and definition of done was insufficiently justified.</t>
   </si>
   <si>
     <t>	Define a rationale (concept) and include in HWCTF (“how-we-closed-the-finding”) document.
 	Establish a minimum threshold or percentage for manual reviewing Tier-0 sessions, significantly exceeding the baseline of 10% and ensure minimum sample sizes also from LE perspective. Update the written rules to include the threshold.
-	Provide sufficient rationale for the overall session monitoring coverage and prioritization for review.
-</t>
+	Provide sufficient rationale for the overall session monitoring coverage and prioritization for review.</t>
   </si>
   <si>
     <t>Incomplete control design to define the appropriate volume of manual session reviews for privileged accounts may result in not timely identifying and stopping potentially malicious or risky activities before they cause significant damage. A manual review of sessions provides a verifiable record of the actions taken by privileged users. This record is invaluable for investigating security breaches, identifying the root cause of an incident, and determining whether the misuse of privileges was caused by a disgruntled insider or accidental negligence by an employee. This allows organizations to take corrective action that would otherwise go unnoticed, which could expose the company to minor financial and operational impacts.</t>
@@ -6592,8 +6482,7 @@
 	The Information Risk Management (IRM) Procedure was provided in a draft version (v.0.3), to be published end of Q3/2025
 	The update of the Escalation process for Information Security Risk Management (ISRM) (v.2.4) was in status “review draft” at the time of submission.
 Moreover, BaFin criticized that 2nd LoD requirements were not always defined sufficiently concrete. With the new framework, it is intended to restrict 2nd LoD guidelines to the “What” on an even higher level, and leave it to 1st LoD to define the “How” in their Procedures, consequently, to address the gaps raised by BaFin. The comprehensiveness and adequacy of the written rules in their entirety can therefore only be validated when the Procedures have been updated and approved.
-European, German, and Luxembourg regulations and guidance require consistent and comprehensive written rules and requirements in the area of ICT risk management.
-</t>
+European, German, and Luxembourg regulations and guidance require consistent and comprehensive written rules and requirements in the area of ICT risk management.</t>
   </si>
   <si>
     <t>Ensure that the following listed 1st LoD procedures, and process documents are reviewed, updated, and formally approved to reflect the requirements outlined in the new ICT Risk Guidelines issued in January 2025.
@@ -6601,8 +6490,7 @@
 	Data Leakage Prevention Procedure
 	Anti-Malware Procedure
 	Information Risk Management Procedure
-	Information Security Risk Management Escalation Process
-</t>
+	Information Security Risk Management Escalation Process</t>
   </si>
   <si>
     <t>Strategy &amp; Architecture (U)</t>
@@ -6613,8 +6501,7 @@
   <si>
     <t>Outstanding 1st LoD Procedures updates and approvals may lead to inconsistent and non-compliant written rules as well as inconsistencies in execution, as the 1st LoD may continue to follow outdated practices that no longer reflect the current expectations set by the updated 2nd LoD Guidelines. 
 Further, due to the fundamental importance of the written rules, Internal Audit cannot finally assess and confirm the design and operating effectiveness of the remediation measures (and the affected control processes therein), as further changes may still be made, which in turn may void previous validation results. 
-This may expose DBG to major compliance and operational impact, and material adverse regulatory impact.
-</t>
+This may expose DBG to major compliance and operational impact, and material adverse regulatory impact.</t>
   </si>
   <si>
     <t>2025-213_F13-A02</t>
@@ -6645,14 +6532,12 @@
 	Insufficient automation definition [ECC 180f]: The ISRM team uses JIRA VMT to import and bundle all necessary information from other central repositories into one DSD for each respective asset. However, the current level of automation is low, and the intended minimum automation level at finding closure has not been defined, consequently not allowing a conclusion whether the remaining manual efforts for initial creation and subsequent maintenance of DSDs would be sustainable.	 
 	Missing guidance for quality checks by ISRM team [ECC 180i]: The ISRM team performs quality checks as part of the risk assessment process on the Mandatory Control Framework (MCF) information provided by the asset owner. However, a documented description of the sample-based approach was not available.	
 Via a sample of one for the digital security document for AID525, Internal Audit also noted that one MCF control was marked as “N/A” and no justification was provided by the asset owner, which had not been identified and resolved by the ISRM quality check.
-European, German and Luxembourg regulation and guidance require sufficiently defined requirements and methodologies as well as testing the reliability and accuracy of the automated workflow.
-</t>
+European, German and Luxembourg regulation and guidance require sufficiently defined requirements and methodologies as well as testing the reliability and accuracy of the automated workflow.</t>
   </si>
   <si>
     <t>	Enforce tests for the automation of imports into the DSD
 	Define which DSD information shall be automatically filled and maintained, and foresee protection of the automated content in the DSD
-	Document the approach, sample selection, and requirements for DSD completeness and plausibility checks
-</t>
+	Document the approach, sample selection, and requirements for DSD completeness and plausibility checks</t>
   </si>
   <si>
     <t>Florian Rodeit</t>
@@ -6665,8 +6550,7 @@
   </si>
   <si>
     <t>Design weaknesses in the Digital Security Documents’ level of automation and quality checks may result in unreliable security documentation which, in turn, may negatively affect the effective and timely execution of control and incident response procedures that are based on information in these documents.
-Inaccurate Digital Security Documentation of assets may further lead to misalignment between the MCF requirements and the implemented state of the respective asset. This may expose DBG to material adverse regulatory impact, and minor financial and operational impact.
-</t>
+Inaccurate Digital Security Documentation of assets may further lead to misalignment between the MCF requirements and the implemented state of the respective asset. This may expose DBG to material adverse regulatory impact, and minor financial and operational impact.</t>
   </si>
   <si>
     <t>2025-213_F17</t>
@@ -6681,16 +6565,14 @@
     <t>BaFin criticized that the reasons for not using certain standard SIEM use cases for “owning” applications were not documented and therefore not sufficiently comprehensible. Going forward, the application onboarding to SIEM will be assessed as part of the Digital Security Document (DSD) creation, and it is required to document why mandatory SIEM use cases are not enabled for the asset as per scoping sheet. The status of the onboarding can be set to fully compliant, partially compliant, not compliant or not applicable. 
 The following weaknesses were identified:
 	The accompanying lacks clarity on how and in what detail deviations need to be justified, e.g. in case some or all of the standard SIEM use cases cannot be implemented. 
-	IA was informed that justifications would be detailed in the corresponding VMT risk entry, but neither the requirement to make reference to the VMT ID, nor guidance or quality controls were defined.
-</t>
+	IA was informed that justifications would be detailed in the corresponding VMT risk entry, but neither the requirement to make reference to the VMT ID, nor guidance or quality controls were defined.</t>
   </si>
   <si>
     <t>Implement controls to ensure that, where SIEM application onboarding is not done for all defined standard use-cases, proper justification is provided why standard use cases are not implemented.</t>
   </si>
   <si>
     <t>Missing control requirements to document justifications for not implementing SIEM use cases may lead to incomplete DSDs and missing challenge for deviations from mandatory security controls. As a result, errors and security weaknesses could remain undetected and expose DBG to higher vulnerability with regard to cyber incidents. 
-This may lead to material adverse regulatory impact and minor financial and operational impact.
-</t>
+This may lead to material adverse regulatory impact and minor financial and operational impact.</t>
   </si>
   <si>
     <t>2025-213_F18</t>
@@ -6703,8 +6585,7 @@
   </si>
   <si>
     <t>BaFin criticized that the reasons for the assessment of the dimensions impact and probability in the risk assessment are not documented in a comprehensible manner. To address this issue, a process for risk evaluation including requirements for calculating the impact and likelihood was defined in the IRM procedure. Impact is calculated based on the CIAA values (confidentiality, integrity, authenticity and availability) affected by the risk while the likelihood is automatically calculated based on a questionnaire including 8 questions with pre-defined set of possible answers that has to be filled. From the 8 questions, two are filled on available data points (e.g. APMS with the SIEM onboarding status), two are factual questions (e.g., pertaining to the occurrence of an IS Incident affecting the asset), and respectively four of them are based on expert judgement.
-However, within the questionnaire for likelihood calculation no rationale/justification is required for selection of the predefined answer options for the four questions based on expert judgement. For example, as an answer to the question regarding how likely the risk can materialize, the pre-defined values  “once a year or more” or “less then once every 20 years” can be selected. However, the asset owner does not have to explain why he selected one of the pre-defined values (e.g. based on historical events).
-</t>
+However, within the questionnaire for likelihood calculation no rationale/justification is required for selection of the predefined answer options for the four questions based on expert judgement. For example, as an answer to the question regarding how likely the risk can materialize, the pre-defined values  “once a year or more” or “less then once every 20 years” can be selected. However, the asset owner does not have to explain why he selected one of the pre-defined values (e.g. based on historical events).</t>
   </si>
   <si>
     <t>Adjust the likelihood-questionnaire to include the rationale/justification for answering the likelihood evaluation questions.</t>
@@ -6726,8 +6607,7 @@
 Internal Audit identified the following weaknesses: 
 	Description solution approach: The provided “How to close the finding” document does not clearly outline the defined solution approach. The solution described within the document (“How-to-close the finding document_IRE_1.5_20250722.pdf”) chapter 4.1.1 only described the creation of asset stacks in detailed as part of the solution. However, the introduction of timeline and time-phases for the execution of the whole risk assessment process, including risk evaluation and risk approval, was not included as part of the solution approach.
 	Processing time per stage: The processing times for the stages of risk assessments were not yet defined in the fixed written rules (guideline and respective procedure) and therefore no clear timeframe for risk evaluation and risk approvals were defined leading to the escalation process not being able to be applied. 
-	Definition of “completed”: The risk assessment is counted as “completed” as soon as the corresponding risks have been transferred into the risk register “ISRM” in JIRA. However, after the transfer, the risk owner still has to approve the risk in the register before the risk is also taken into consideration for the OpRisk process, this step is not considered part of the risk assessment and therefore not tracked within the escalation process for risk assessments. 
-</t>
+	Definition of “completed”: The risk assessment is counted as “completed” as soon as the corresponding risks have been transferred into the risk register “ISRM” in JIRA. However, after the transfer, the risk owner still has to approve the risk in the register before the risk is also taken into consideration for the OpRisk process, this step is not considered part of the risk assessment and therefore not tracked within the escalation process for risk assessments.</t>
   </si>
   <si>
     <t>Adjust the corresponding procedure and subsequent risk assessment process document to include defined processing times for the individual risk assessment stages including risk evaluation and risk approval, as well as adjustment of the definition for “completed” considering also the approval of the risks by the risk owner within the risk register.</t>
@@ -6747,8 +6627,7 @@
   <si>
     <t>BaFin criticized that no adequate segmentation of the network is ensured. To address this issue, several monthly controls were implemented to identify and process misplacements, i.e. IT assets placed in an incorrect network zone. For identified deviations, CRM tickets addressed to the asset owners, are created. In case of missing timely response by the asset owner, a first and a second reminder will be automatically sent respectively after the second reminder the ticket will be closed and the deviation transferred into the escalation process (the head of “IT core process governance” contacts the asset owner directly). 
 However, CRM tickets are closed already when the asset owner responses that a remediation of the deviation is planned, instead of closing the ticket only after the deviation was actually corrected. 
-Moreover, the status of deviations within the escalation process lacks central documentation. In case the deviation still exists in the next control period, a new CRM ticket will be created and therefore “long runners” cannot be identified.
-</t>
+Moreover, the status of deviations within the escalation process lacks central documentation. In case the deviation still exists in the next control period, a new CRM ticket will be created and therefore “long runners” cannot be identified.</t>
   </si>
   <si>
     <t>Adjust the monitoring and escalation process by closing CRM tickets only based on evidence that deviations were actually addressed, and tracking escalation activities within a central repository.</t>
@@ -6770,8 +6649,7 @@
   </si>
   <si>
     <t>BaFin criticized, that a network concept was missing as well as that the network is not adequately protected by a corresponding zoning. To address this issue, the network security architecture was adjusted by definition and implementation of segregation areas and corresponding network security zones per area. Based on this network security architecture, the SAFE project defined four waves for identification and handling of misplacements respectively to implement detective and preventive controls. Focus on wave 1 and wave 2, due by end of Q1 2025, was the addressing of misplacements between segregation areas (e.g. a development server is placed in the production area) while the focus of wave 3 and wave 4, due by end of Q1 2026, was addressing of misplacements within a segregation area (e.g. a management server is placed in the production security zone). 
-The provided AMELI SAFE-1 package for Internal Audit for the validation of the “test of operating effectiveness” (ToE) only included the completion of wave 1 and wave 2 for addressing misplacements between segregation areas as the definition of done for solving the external BaFin finding. As part of Internal Audit’s validation work, no findings as an indicator of undetected or unmanaged misplacements between segregation areas were identified. However, in order to ensure a compliant zoning of the network (as required/noted by BaFin) also the addressing of misplacements within a segregation area (wave 3 and wave 4) including corresponding controls is required.
-</t>
+The provided AMELI SAFE-1 package for Internal Audit for the validation of the “test of operating effectiveness” (ToE) only included the completion of wave 1 and wave 2 for addressing misplacements between segregation areas as the definition of done for solving the external BaFin finding. As part of Internal Audit’s validation work, no findings as an indicator of undetected or unmanaged misplacements between segregation areas were identified. However, in order to ensure a compliant zoning of the network (as required/noted by BaFin) also the addressing of misplacements within a segregation area (wave 3 and wave 4) including corresponding controls is required.</t>
   </si>
   <si>
     <t>Complete wave 3 and wave 4 for addressing misplaced assets within a segregation area, as well as define and implement corresponding controls.</t>
@@ -6804,30 +6682,110 @@
     <t>While performing remediation activities for ECAG sub-finding Tz. 120d “VPN-Encryption”, Internal Audit identified that the original finding was not yet resolved with respect to upgrading the outdated TLS 1.1 encryption protocol to the current versions TLS 1.2 or TLS 1.3. 
 The workstream responsible for the remediation of this sub-finding could not demonstrate that all measures defined for the remediation have successfully been finalized. The implementation of a safe encryption standard was still under discussion for the client using TLS 1.1.
 Additionally, suitable controls to ensure that connections within DBG environment and interconnections with clients are only using safe encryption protocols have not yet been defined and implemented. These controls are required to ensure sustainability of the solution.
-European, German and Luxembourg regulation and guidance require IT systems to ensure data integrity, reliability and authenticity by implementing and updating reliable encryption techniques under consideration of developments in cryptanalysis.  
-</t>
+European, German and Luxembourg regulation and guidance require IT systems to ensure data integrity, reliability and authenticity by implementing and updating reliable encryption techniques under consideration of developments in cryptanalysis.</t>
   </si>
   <si>
     <t>Internal Audit recommends that Chief Technology Officer (ZJS)
 	Migrate all clients still using TLS 1.1 to an updated safe TLS version (TLS 1.2. or 1.3). 
-	Define and implement suitable controls to prevent, or at least detect and alert, the use of outdated encryption protocols for all network connections within DBG and with clients.
-</t>
+	Define and implement suitable controls to prevent, or at least detect and alert, the use of outdated encryption protocols for all network connections within DBG and with clients.</t>
   </si>
   <si>
     <t>Viswanath Palakkad Swaminathan</t>
   </si>
   <si>
     <t>The use of outdated and insecure encryption protocols represents a minor breach of regulatory requirements and may impact the integrity, reliability, confidentiality and authenticity of data that is not adequately safeguarded. This may in consequence result in minor financial impact, as well as material regulatory and reputational risk.</t>
+  </si>
+  <si>
+    <t>2024-016_F11</t>
+  </si>
+  <si>
+    <t>2024-016</t>
+  </si>
+  <si>
+    <t>Software Development Lifecycle (DBAG, ECAG, CBF, CBL, CFCL)</t>
+  </si>
+  <si>
+    <t>2024-016_F11-A01</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Weaknesses in the C7 (AID021) software development lifecycle process</t>
+  </si>
+  <si>
+    <t>As part of the standard Information Security Risk Management process, ETD Clearing Implementation (ZAV) performed a risk assessment of the C7 (AID021) application via RAP-5064 and noted the following weaknesses identified in November 2023 surrounding the Software Development Lifecycle process: 
+	Missing automated version integrity checks to compare 'as is' vis-à-vis 'to be’ versions of the application (ISRM-117997).
+	Lack of dedicated tests for security event logging and monitoring (ISRM-118009).
+	Inadequate archival of test documentation in repositories (ISRM-118003).
+	Improper source code access provisioning as it was delegated to the SCM team instead of the asset owner (ISRM-117949).
+	Inadequate application launch readiness/release documentation on exception basis (ISRM-118015).</t>
+  </si>
+  <si>
+    <t>ETD Clearing Implementation (ZAV) has proactively started to address and continues the implementation of the following steps to remediate the risk. Accordingly, updated risk entries are available in the risk register. The following remediation actions are in motion:
+	Introduce an online up-to-date Configuration Management Database (CMDB). Based on that, permanent checks can be done if the running version 'as is' is the same as the defined version 'to be'.
+	Define a holistic and consolidated security testing approach.
+	Models not stored in a repository to be migrated to Jira or GitHub. Test results to be stored e.g., on the existing immutable AWS S3 storage. 
+With regard to the remaining weaknesses, due to the following reasons, management considered duly accepting and acknowledging the risks and documented the risk acceptance within the risk register:
+	Right to source code access provisioning shall remain with the SCM team instead of the Asset Owner as it is considered effective and less time consuming since it can be performed by any assigned individual within the SCM team (ISRM-117949 resolved on 06 December 2023).
+	ZAV had no control in place to ensure that documentation was updated before launch for every release. However, this was part of the acceptance process and could be tracked as a known limitation (ISRM-118015 resolved on 06 December 2023).</t>
+  </si>
+  <si>
+    <t>Urvashi Emrith</t>
+  </si>
+  <si>
+    <t>ETD Clearing Implementation (S)</t>
+  </si>
+  <si>
+    <t>Risk: Software development lifecycle process gaps may lead to inability to maintain confidentiality &amp; integrity of source code/version and other security events, and non-adherence to regulatory and compliance requirements. This may expose the company to operational and regulatory risks, representing a material violation of internal/external provisions and minor financial impact.</t>
+  </si>
+  <si>
+    <t>Jörg Heroth</t>
+  </si>
+  <si>
+    <t>2024-063_F07</t>
+  </si>
+  <si>
+    <t>2024-063_F07-A01</t>
+  </si>
+  <si>
+    <t>Lack of Emerging Technology Risk framework</t>
+  </si>
+  <si>
+    <t>Chief Technology Officer’s (ZJS) Enterprise Architecture and Digital Innovation unit (ENA) reported that due to the recent developments in the technology area and the Deutsche Börse Group (DBG) organisation, there was no existing framework dedicated to emerging technology risks, including identification and evaluation of the opportunities, the risks and strategy around emerging technology (e.g. Quantum encryption, Blockchain, IoT, etc.). 
+Root Cause: The root cause was inadequate governance structure around the topic of emerging technology risks. 
+Risk: The identified risk was not being able to identify new opportunities and the related strategy to follow on the mid/long term.</t>
+  </si>
+  <si>
+    <t>Enterprise Architecture and Digital Innovation (ENA) has proactively started to address and continue the implementation, supported by regular progress tracked by Management. In particular:
+	Initiate collaboration with the Gartner service provider (focusing on 3–5-year timeline) on validating the understanding of the impact of key technologies that might disrupt the industry and the competitive landscape. The Gartner initiative, which has already started, validated that DBG was currently not missing any key trends and was actively covering those. 
+	Further business investment decisions determined the following action plan for 2025:
+-	In alignment with IT Strategy as a major input provider: develop a comprehensive Emerging Technology Risk Framework that aligns with the overall IT strategy and business objectives.
+-	Define roles and responsibilities: clearly define key stakeholders’ and governing bodies’ roles and responsibilities of to coordinate and achieve synergy effects throughout DBG. 
+-	Develop and implement appropriate mitigation strategies to address identified risks.
+-	Maintain collaboration and knowledge sharing: with partners (Gartner, McKinsey and potentially others) and among relevant teams to promote awareness of emerging technologies and their associated risks.</t>
+  </si>
+  <si>
+    <t>CBL Luxembourg,CI Luxembourg,CS Luxembourg,Clearstream Europe AG,Clearstream Fund CentreSA,Clearstream Holding AG,Deutsche Börse AG,Eurex Clearing AG,Eurex Frankfurt AG,Eurex Repo GmbH,Group IT Audit,ISS-STOXX GmbH,LUXCSD</t>
+  </si>
+  <si>
+    <t>Due date for resolution: 31 March 2026</t>
+  </si>
+  <si>
+    <t>The identified risk was not being able to identify new opportunities and the related strategy to follow on the mid/long term.</t>
+  </si>
+  <si>
+    <t>CHRISTOPH BÖHM(Deutsche Börse AG),DANIEL BESSE(CS Luxembourg),DANIEL BESSE(Clearstream Holding AG),FABRICE TOMENKO(CI Luxembourg),KEVIN HAYES(Clearstream Fund CentreSA),MANFRED MATUSZA(Eurex Clearing AG),MARC ROBERT-NICOUD(ISS-STOXX GmbH),MARCO CALIGARIS(LUXCSD),MATTHIAS GRAULICH(Eurex Repo GmbH),VOLKER RIEBESELL(Clearstream Europe AG),WOLFGANG EHOLZER(Eurex Frankfurt AG),YANNICK GOINEAU(CBL Luxembourg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6835,11 +6793,11 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -6869,15 +6827,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6891,66 +6849,378 @@
       <color rgb="FFF7F7F7"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AO186"/>
+  <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="32.75" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="29.75" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="13.25" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="29.75" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="29.75" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="32.75" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="32.75" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="32.75" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="32.75" customWidth="1"/>
-    <col min="14" max="14" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="13.25" customWidth="1"/>
-    <col min="16" max="16" bestFit="1" width="19.25" customWidth="1"/>
-    <col min="17" max="17" bestFit="1" width="19.25" customWidth="1"/>
-    <col min="18" max="18" bestFit="1" width="15.25" customWidth="1"/>
-    <col min="19" max="19" bestFit="1" width="26.25" customWidth="1"/>
-    <col min="20" max="20" bestFit="1" width="25.25" customWidth="1"/>
-    <col min="21" max="21" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="23" max="23" bestFit="1" width="38.25" customWidth="1"/>
-    <col min="24" max="24" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="25" max="25" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="26" max="26" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="27" max="27" bestFit="1" width="43.25" customWidth="1"/>
-    <col min="28" max="28" bestFit="1" width="41.25" customWidth="1"/>
-    <col min="29" max="29" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="30" max="30" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="31" max="31" bestFit="1" width="43.25" customWidth="1"/>
-    <col min="32" max="32" bestFit="1" width="39.25" customWidth="1"/>
-    <col min="33" max="33" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="34" max="34" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="35" max="35" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="36" max="36" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="37" max="37" bestFit="1" width="37.75" customWidth="1"/>
-    <col min="38" max="38" bestFit="1" width="37.75" customWidth="1"/>
-    <col min="39" max="39" bestFit="1" width="40.75" customWidth="1"/>
-    <col min="40" max="40" bestFit="1" width="37.75" customWidth="1"/>
-    <col min="41" max="41" bestFit="1" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7075,7 +7345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -7128,7 +7398,7 @@
         <v>46127</v>
       </c>
       <c r="T2" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>54</v>
@@ -7188,7 +7458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -7241,7 +7511,7 @@
         <v>46097</v>
       </c>
       <c r="T3" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>54</v>
@@ -7301,7 +7571,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -7354,7 +7624,7 @@
         <v>46112</v>
       </c>
       <c r="T4" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>89</v>
@@ -7411,7 +7681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -7467,7 +7737,7 @@
         <v>45707</v>
       </c>
       <c r="T5" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>108</v>
@@ -7530,7 +7800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -7586,7 +7856,7 @@
         <v>46003</v>
       </c>
       <c r="T6" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>133</v>
@@ -7646,7 +7916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -7699,7 +7969,7 @@
         <v>46142</v>
       </c>
       <c r="T7" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>133</v>
@@ -7759,7 +8029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -7815,7 +8085,7 @@
         <v>46014</v>
       </c>
       <c r="T8" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>154</v>
@@ -7875,7 +8145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -7931,7 +8201,7 @@
         <v>46021</v>
       </c>
       <c r="T9" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>154</v>
@@ -7991,7 +8261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -8044,7 +8314,7 @@
         <v>46185</v>
       </c>
       <c r="T10" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>54</v>
@@ -8101,7 +8371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -8154,7 +8424,7 @@
         <v>46037</v>
       </c>
       <c r="T11" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>54</v>
@@ -8214,7 +8484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -8267,7 +8537,7 @@
         <v>46374</v>
       </c>
       <c r="T12" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>54</v>
@@ -8327,7 +8597,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -8380,7 +8650,7 @@
         <v>46037</v>
       </c>
       <c r="T13" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>54</v>
@@ -8440,7 +8710,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -8496,7 +8766,7 @@
         <v>46007</v>
       </c>
       <c r="T14" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>54</v>
@@ -8562,7 +8832,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -8618,7 +8888,7 @@
         <v>45993</v>
       </c>
       <c r="T15" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>232</v>
@@ -8681,7 +8951,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -8734,7 +9004,7 @@
         <v>46157</v>
       </c>
       <c r="T16" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>154</v>
@@ -8791,7 +9061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -8844,7 +9114,7 @@
         <v>46218</v>
       </c>
       <c r="T17" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>266</v>
@@ -8901,7 +9171,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -8954,7 +9224,7 @@
         <v>46325</v>
       </c>
       <c r="T18" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>154</v>
@@ -9008,7 +9278,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -9061,7 +9331,7 @@
         <v>46234</v>
       </c>
       <c r="T19" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>154</v>
@@ -9115,7 +9385,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -9168,7 +9438,7 @@
         <v>46234</v>
       </c>
       <c r="T20" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>154</v>
@@ -9222,7 +9492,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -9275,7 +9545,7 @@
         <v>46325</v>
       </c>
       <c r="T21" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>154</v>
@@ -9329,7 +9599,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -9382,7 +9652,7 @@
         <v>46427</v>
       </c>
       <c r="T22" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>109</v>
@@ -9439,7 +9709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -9492,7 +9762,7 @@
         <v>46112</v>
       </c>
       <c r="T23" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>54</v>
@@ -9552,7 +9822,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -9605,7 +9875,7 @@
         <v>46112</v>
       </c>
       <c r="T24" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>54</v>
@@ -9665,7 +9935,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -9718,7 +9988,7 @@
         <v>46112</v>
       </c>
       <c r="T25" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>54</v>
@@ -9778,7 +10048,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -9831,7 +10101,7 @@
         <v>46112</v>
       </c>
       <c r="T26" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>54</v>
@@ -9891,7 +10161,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -9944,7 +10214,7 @@
         <v>46094</v>
       </c>
       <c r="T27" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>109</v>
@@ -9998,7 +10268,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -10051,7 +10321,7 @@
         <v>46108</v>
       </c>
       <c r="T28" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>378</v>
@@ -10108,7 +10378,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -10164,7 +10434,7 @@
         <v>46001</v>
       </c>
       <c r="T29" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>378</v>
@@ -10221,7 +10491,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -10277,7 +10547,7 @@
         <v>45898</v>
       </c>
       <c r="T30" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>414</v>
@@ -10337,7 +10607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -10390,7 +10660,7 @@
         <v>46366</v>
       </c>
       <c r="T31" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>432</v>
@@ -10447,7 +10717,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -10500,7 +10770,7 @@
         <v>46366</v>
       </c>
       <c r="T32" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>432</v>
@@ -10557,7 +10827,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -10610,7 +10880,7 @@
         <v>46366</v>
       </c>
       <c r="T33" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>432</v>
@@ -10667,7 +10937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -10720,7 +10990,7 @@
         <v>46366</v>
       </c>
       <c r="T34" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>432</v>
@@ -10777,7 +11047,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -10830,7 +11100,7 @@
         <v>46366</v>
       </c>
       <c r="T35" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>432</v>
@@ -10887,7 +11157,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -10940,7 +11210,7 @@
         <v>46366</v>
       </c>
       <c r="T36" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>432</v>
@@ -10997,7 +11267,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -11050,7 +11320,7 @@
         <v>46366</v>
       </c>
       <c r="T37" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>432</v>
@@ -11107,7 +11377,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -11160,7 +11430,7 @@
         <v>46366</v>
       </c>
       <c r="T38" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>432</v>
@@ -11217,7 +11487,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -11273,7 +11543,7 @@
         <v>45995</v>
       </c>
       <c r="T39" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>54</v>
@@ -11333,7 +11603,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -11386,7 +11656,7 @@
         <v>46188</v>
       </c>
       <c r="T40" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>509</v>
@@ -11443,7 +11713,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -11496,7 +11766,7 @@
         <v>46096</v>
       </c>
       <c r="T41" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>509</v>
@@ -11553,7 +11823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -11606,7 +11876,7 @@
         <v>46096</v>
       </c>
       <c r="T42" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>54</v>
@@ -11663,7 +11933,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -11719,7 +11989,7 @@
         <v>46020</v>
       </c>
       <c r="T43" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>109</v>
@@ -11773,7 +12043,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -11829,7 +12099,7 @@
         <v>46021</v>
       </c>
       <c r="T44" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>109</v>
@@ -11883,7 +12153,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -11936,7 +12206,7 @@
         <v>46104</v>
       </c>
       <c r="T45" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2" t="s">
         <v>109</v>
@@ -11990,7 +12260,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -12043,7 +12313,7 @@
         <v>46081</v>
       </c>
       <c r="T46" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>54</v>
@@ -12094,7 +12364,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -12147,7 +12417,7 @@
         <v>46295</v>
       </c>
       <c r="T47" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>54</v>
@@ -12198,7 +12468,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -12254,7 +12524,7 @@
         <v>46010</v>
       </c>
       <c r="T48" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>54</v>
@@ -12308,7 +12578,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -12361,7 +12631,7 @@
         <v>46045</v>
       </c>
       <c r="T49" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>54</v>
@@ -12415,7 +12685,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -12468,7 +12738,7 @@
         <v>46073</v>
       </c>
       <c r="T50" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>54</v>
@@ -12522,7 +12792,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -12575,7 +12845,7 @@
         <v>46111</v>
       </c>
       <c r="T51" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>54</v>
@@ -12629,7 +12899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -12682,7 +12952,7 @@
         <v>46241</v>
       </c>
       <c r="T52" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>54</v>
@@ -12739,7 +13009,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -12792,7 +13062,7 @@
         <v>46127</v>
       </c>
       <c r="T53" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U53" s="2" t="s">
         <v>432</v>
@@ -12846,7 +13116,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -12902,7 +13172,7 @@
         <v>46002</v>
       </c>
       <c r="T54" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>54</v>
@@ -12959,7 +13229,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -13012,7 +13282,7 @@
         <v>46141</v>
       </c>
       <c r="T55" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>54</v>
@@ -13069,7 +13339,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -13122,7 +13392,7 @@
         <v>46036</v>
       </c>
       <c r="T56" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>54</v>
@@ -13179,7 +13449,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>41</v>
       </c>
@@ -13232,7 +13502,7 @@
         <v>46036</v>
       </c>
       <c r="T57" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>54</v>
@@ -13289,7 +13559,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>41</v>
       </c>
@@ -13342,7 +13612,7 @@
         <v>46127</v>
       </c>
       <c r="T58" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>432</v>
@@ -13399,7 +13669,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -13452,7 +13722,7 @@
         <v>46127</v>
       </c>
       <c r="T59" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>432</v>
@@ -13506,7 +13776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
@@ -13556,10 +13826,10 @@
         <v>46006</v>
       </c>
       <c r="Q60" s="3">
-        <v>46006</v>
+        <v>46174</v>
       </c>
       <c r="T60" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>432</v>
@@ -13613,7 +13883,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -13666,7 +13936,7 @@
         <v>46037</v>
       </c>
       <c r="T61" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>109</v>
@@ -13720,7 +13990,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
@@ -13773,7 +14043,7 @@
         <v>46112</v>
       </c>
       <c r="T62" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>432</v>
@@ -13830,7 +14100,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>41</v>
       </c>
@@ -13883,7 +14153,7 @@
         <v>46108</v>
       </c>
       <c r="T63" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>378</v>
@@ -13940,7 +14210,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>41</v>
       </c>
@@ -13993,7 +14263,7 @@
         <v>46037</v>
       </c>
       <c r="T64" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>721</v>
@@ -14047,7 +14317,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
@@ -14100,7 +14370,7 @@
         <v>46219</v>
       </c>
       <c r="T65" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>109</v>
@@ -14154,7 +14424,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>41</v>
       </c>
@@ -14207,7 +14477,7 @@
         <v>46219</v>
       </c>
       <c r="T66" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>109</v>
@@ -14261,7 +14531,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -14317,7 +14587,7 @@
         <v>46002</v>
       </c>
       <c r="T67" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U67" s="2" t="s">
         <v>154</v>
@@ -14371,7 +14641,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -14424,7 +14694,7 @@
         <v>46357</v>
       </c>
       <c r="T68" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>154</v>
@@ -14478,7 +14748,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>41</v>
       </c>
@@ -14531,7 +14801,7 @@
         <v>46129</v>
       </c>
       <c r="T69" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U69" s="2" t="s">
         <v>154</v>
@@ -14585,7 +14855,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
@@ -14638,7 +14908,7 @@
         <v>46357</v>
       </c>
       <c r="T70" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U70" s="2" t="s">
         <v>154</v>
@@ -14692,7 +14962,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
@@ -14745,7 +15015,7 @@
         <v>46142</v>
       </c>
       <c r="T71" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>154</v>
@@ -14799,7 +15069,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
@@ -14852,7 +15122,7 @@
         <v>46136</v>
       </c>
       <c r="T72" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>783</v>
@@ -14906,7 +15176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -14959,7 +15229,7 @@
         <v>46115</v>
       </c>
       <c r="T73" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>154</v>
@@ -15013,7 +15283,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
@@ -15066,7 +15336,7 @@
         <v>46142</v>
       </c>
       <c r="T74" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>154</v>
@@ -15120,7 +15390,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
@@ -15173,7 +15443,7 @@
         <v>46071</v>
       </c>
       <c r="T75" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>154</v>
@@ -15227,7 +15497,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>41</v>
       </c>
@@ -15280,7 +15550,7 @@
         <v>46038</v>
       </c>
       <c r="T76" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>820</v>
@@ -15334,7 +15604,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -15390,7 +15660,7 @@
         <v>45925</v>
       </c>
       <c r="T77" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>832</v>
@@ -15450,7 +15720,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>41</v>
       </c>
@@ -15503,7 +15773,7 @@
         <v>46127</v>
       </c>
       <c r="T78" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U78" s="2" t="s">
         <v>849</v>
@@ -15560,7 +15830,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>41</v>
       </c>
@@ -15613,7 +15883,7 @@
         <v>46157</v>
       </c>
       <c r="T79" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U79" s="2" t="s">
         <v>849</v>
@@ -15667,7 +15937,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
@@ -15720,7 +15990,7 @@
         <v>46188</v>
       </c>
       <c r="T80" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>849</v>
@@ -15774,7 +16044,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
@@ -15827,7 +16097,7 @@
         <v>46157</v>
       </c>
       <c r="T81" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U81" s="2" t="s">
         <v>877</v>
@@ -15884,7 +16154,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -15937,7 +16207,7 @@
         <v>46037</v>
       </c>
       <c r="T82" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U82" s="2" t="s">
         <v>109</v>
@@ -15991,7 +16261,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -16044,7 +16314,7 @@
         <v>46188</v>
       </c>
       <c r="T83" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U83" s="2" t="s">
         <v>109</v>
@@ -16098,7 +16368,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -16151,7 +16421,7 @@
         <v>46037</v>
       </c>
       <c r="T84" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>109</v>
@@ -16205,7 +16475,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
@@ -16258,7 +16528,7 @@
         <v>46037</v>
       </c>
       <c r="T85" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>109</v>
@@ -16312,7 +16582,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -16365,7 +16635,7 @@
         <v>46037</v>
       </c>
       <c r="T86" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>109</v>
@@ -16419,7 +16689,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -16472,7 +16742,7 @@
         <v>46174</v>
       </c>
       <c r="T87" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>109</v>
@@ -16526,7 +16796,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
@@ -16579,7 +16849,7 @@
         <v>46071</v>
       </c>
       <c r="T88" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>109</v>
@@ -16633,7 +16903,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
@@ -16686,7 +16956,7 @@
         <v>46071</v>
       </c>
       <c r="T89" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>109</v>
@@ -16740,7 +17010,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -16793,7 +17063,7 @@
         <v>46433</v>
       </c>
       <c r="T90" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>432</v>
@@ -16844,7 +17114,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>41</v>
       </c>
@@ -16897,7 +17167,7 @@
         <v>46433</v>
       </c>
       <c r="T91" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>432</v>
@@ -16954,7 +17224,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>41</v>
       </c>
@@ -17007,7 +17277,7 @@
         <v>46433</v>
       </c>
       <c r="T92" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>432</v>
@@ -17064,7 +17334,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>41</v>
       </c>
@@ -17117,7 +17387,7 @@
         <v>46433</v>
       </c>
       <c r="T93" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>432</v>
@@ -17174,7 +17444,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>41</v>
       </c>
@@ -17227,7 +17497,7 @@
         <v>46433</v>
       </c>
       <c r="T94" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>432</v>
@@ -17284,7 +17554,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>41</v>
       </c>
@@ -17337,7 +17607,7 @@
         <v>46323</v>
       </c>
       <c r="T95" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>993</v>
@@ -17391,7 +17661,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -17444,7 +17714,7 @@
         <v>46323</v>
       </c>
       <c r="T96" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U96" s="2" t="s">
         <v>1005</v>
@@ -17498,7 +17768,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -17551,7 +17821,7 @@
         <v>46189</v>
       </c>
       <c r="T97" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>1013</v>
@@ -17605,7 +17875,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -17661,7 +17931,7 @@
         <v>46021</v>
       </c>
       <c r="T98" s="2">
-        <v>0001</v>
+        <v>1</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>1025</v>
@@ -17721,7 +17991,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>41</v>
       </c>
@@ -17774,7 +18044,7 @@
         <v>46189</v>
       </c>
       <c r="T99" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U99" s="2" t="s">
         <v>1025</v>
@@ -17828,7 +18098,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>41</v>
       </c>
@@ -17881,7 +18151,7 @@
         <v>46064</v>
       </c>
       <c r="T100" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U100" s="2" t="s">
         <v>1025</v>
@@ -17935,7 +18205,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
@@ -17988,7 +18258,7 @@
         <v>46127</v>
       </c>
       <c r="T101" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U101" s="2" t="s">
         <v>109</v>
@@ -18042,7 +18312,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>41</v>
       </c>
@@ -18095,7 +18365,7 @@
         <v>46218</v>
       </c>
       <c r="T102" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U102" s="2" t="s">
         <v>109</v>
@@ -18149,7 +18419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>41</v>
       </c>
@@ -18202,7 +18472,7 @@
         <v>46218</v>
       </c>
       <c r="T103" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U103" s="2" t="s">
         <v>109</v>
@@ -18256,7 +18526,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -18312,7 +18582,7 @@
         <v>45999</v>
       </c>
       <c r="T104" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>109</v>
@@ -18366,7 +18636,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>41</v>
       </c>
@@ -18419,7 +18689,7 @@
         <v>46218</v>
       </c>
       <c r="T105" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U105" s="2" t="s">
         <v>109</v>
@@ -18473,7 +18743,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>41</v>
       </c>
@@ -18526,7 +18796,7 @@
         <v>46179</v>
       </c>
       <c r="T106" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>109</v>
@@ -18580,7 +18850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -18633,7 +18903,7 @@
         <v>46126</v>
       </c>
       <c r="T107" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U107" s="2" t="s">
         <v>1092</v>
@@ -18687,7 +18957,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -18740,7 +19010,7 @@
         <v>46185</v>
       </c>
       <c r="T108" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>1108</v>
@@ -18794,7 +19064,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -18847,7 +19117,7 @@
         <v>46094</v>
       </c>
       <c r="T109" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U109" s="2" t="s">
         <v>1120</v>
@@ -18901,7 +19171,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -18954,7 +19224,7 @@
         <v>46066</v>
       </c>
       <c r="T110" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U110" s="2" t="s">
         <v>1129</v>
@@ -19008,7 +19278,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
@@ -19061,7 +19331,7 @@
         <v>46112</v>
       </c>
       <c r="T111" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U111" s="2" t="s">
         <v>1138</v>
@@ -19115,7 +19385,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
@@ -19168,7 +19438,7 @@
         <v>46203</v>
       </c>
       <c r="T112" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U112" s="2" t="s">
         <v>1149</v>
@@ -19222,7 +19492,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>41</v>
       </c>
@@ -19275,7 +19545,7 @@
         <v>46203</v>
       </c>
       <c r="T113" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U113" s="2" t="s">
         <v>1149</v>
@@ -19329,7 +19599,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -19382,7 +19652,7 @@
         <v>46203</v>
       </c>
       <c r="T114" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U114" s="2" t="s">
         <v>1149</v>
@@ -19436,7 +19706,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -19489,7 +19759,7 @@
         <v>46407</v>
       </c>
       <c r="T115" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U115" s="2" t="s">
         <v>1149</v>
@@ -19543,7 +19813,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
@@ -19596,7 +19866,7 @@
         <v>46203</v>
       </c>
       <c r="T116" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U116" s="2" t="s">
         <v>1149</v>
@@ -19650,7 +19920,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>41</v>
       </c>
@@ -19703,7 +19973,7 @@
         <v>46288</v>
       </c>
       <c r="T117" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>1188</v>
@@ -19757,7 +20027,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>41</v>
       </c>
@@ -19810,7 +20080,7 @@
         <v>46162</v>
       </c>
       <c r="T118" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U118" s="2" t="s">
         <v>1200</v>
@@ -19864,7 +20134,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -19917,7 +20187,7 @@
         <v>46162</v>
       </c>
       <c r="T119" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>1200</v>
@@ -19971,7 +20241,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -20024,7 +20294,7 @@
         <v>46371</v>
       </c>
       <c r="T120" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U120" s="2" t="s">
         <v>1210</v>
@@ -20078,7 +20348,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>41</v>
       </c>
@@ -20131,7 +20401,7 @@
         <v>46203</v>
       </c>
       <c r="T121" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U121" s="2" t="s">
         <v>432</v>
@@ -20185,7 +20455,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>41</v>
       </c>
@@ -20238,7 +20508,7 @@
         <v>46199</v>
       </c>
       <c r="T122" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U122" s="2" t="s">
         <v>1210</v>
@@ -20292,7 +20562,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
@@ -20345,7 +20615,7 @@
         <v>401404</v>
       </c>
       <c r="T123" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U123" s="2" t="s">
         <v>1237</v>
@@ -20399,7 +20669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>41</v>
       </c>
@@ -20452,7 +20722,7 @@
         <v>46112</v>
       </c>
       <c r="T124" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U124" s="2" t="s">
         <v>1248</v>
@@ -20506,7 +20776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>41</v>
       </c>
@@ -20559,7 +20829,7 @@
         <v>46402</v>
       </c>
       <c r="T125" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>1258</v>
@@ -20616,7 +20886,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>41</v>
       </c>
@@ -20669,7 +20939,7 @@
         <v>46290</v>
       </c>
       <c r="T126" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>1258</v>
@@ -20726,7 +20996,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>41</v>
       </c>
@@ -20779,7 +21049,7 @@
         <v>46295</v>
       </c>
       <c r="T127" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>1279</v>
@@ -20833,7 +21103,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>41</v>
       </c>
@@ -20886,7 +21156,7 @@
         <v>46387</v>
       </c>
       <c r="T128" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U128" s="2" t="s">
         <v>1258</v>
@@ -20943,7 +21213,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>41</v>
       </c>
@@ -20996,7 +21266,7 @@
         <v>46387</v>
       </c>
       <c r="T129" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U129" s="2" t="s">
         <v>1258</v>
@@ -21053,7 +21323,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>41</v>
       </c>
@@ -21106,7 +21376,7 @@
         <v>46220</v>
       </c>
       <c r="T130" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>1258</v>
@@ -21163,7 +21433,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>41</v>
       </c>
@@ -21216,7 +21486,7 @@
         <v>46342</v>
       </c>
       <c r="T131" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U131" s="2" t="s">
         <v>1258</v>
@@ -21273,7 +21543,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>41</v>
       </c>
@@ -21326,7 +21596,7 @@
         <v>46218</v>
       </c>
       <c r="T132" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U132" s="2" t="s">
         <v>1258</v>
@@ -21383,7 +21653,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>41</v>
       </c>
@@ -21436,7 +21706,7 @@
         <v>46178</v>
       </c>
       <c r="T133" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U133" s="2" t="s">
         <v>1323</v>
@@ -21493,7 +21763,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
@@ -21546,7 +21816,7 @@
         <v>46178</v>
       </c>
       <c r="T134" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>1323</v>
@@ -21603,7 +21873,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>41</v>
       </c>
@@ -21656,7 +21926,7 @@
         <v>46085</v>
       </c>
       <c r="T135" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>1345</v>
@@ -21710,7 +21980,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>41</v>
       </c>
@@ -21763,7 +22033,7 @@
         <v>46150</v>
       </c>
       <c r="T136" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U136" s="2" t="s">
         <v>54</v>
@@ -21817,7 +22087,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>41</v>
       </c>
@@ -21870,7 +22140,7 @@
         <v>46150</v>
       </c>
       <c r="T137" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>54</v>
@@ -21924,7 +22194,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>41</v>
       </c>
@@ -21977,7 +22247,7 @@
         <v>46150</v>
       </c>
       <c r="T138" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>54</v>
@@ -22031,7 +22301,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>41</v>
       </c>
@@ -22084,7 +22354,7 @@
         <v>46096</v>
       </c>
       <c r="T139" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>1323</v>
@@ -22141,7 +22411,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>41</v>
       </c>
@@ -22194,7 +22464,7 @@
         <v>46295</v>
       </c>
       <c r="T140" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>432</v>
@@ -22245,7 +22515,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
@@ -22298,7 +22568,7 @@
         <v>46295</v>
       </c>
       <c r="T141" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>432</v>
@@ -22349,7 +22619,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
@@ -22402,7 +22672,7 @@
         <v>46218</v>
       </c>
       <c r="T142" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U142" s="2" t="s">
         <v>432</v>
@@ -22453,7 +22723,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>41</v>
       </c>
@@ -22506,7 +22776,7 @@
         <v>401404</v>
       </c>
       <c r="T143" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U143" s="2" t="s">
         <v>1407</v>
@@ -22557,7 +22827,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>41</v>
       </c>
@@ -22610,7 +22880,7 @@
         <v>401404</v>
       </c>
       <c r="T144" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U144" s="2" t="s">
         <v>432</v>
@@ -22661,7 +22931,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>41</v>
       </c>
@@ -22714,7 +22984,7 @@
         <v>46218</v>
       </c>
       <c r="T145" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U145" s="2" t="s">
         <v>109</v>
@@ -22768,7 +23038,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>41</v>
       </c>
@@ -22821,7 +23091,7 @@
         <v>46097</v>
       </c>
       <c r="T146" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>109</v>
@@ -22875,7 +23145,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>41</v>
       </c>
@@ -22928,7 +23198,7 @@
         <v>46157</v>
       </c>
       <c r="T147" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U147" s="2" t="s">
         <v>1442</v>
@@ -22979,7 +23249,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>41</v>
       </c>
@@ -23032,7 +23302,7 @@
         <v>46127</v>
       </c>
       <c r="T148" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U148" s="2" t="s">
         <v>109</v>
@@ -23086,7 +23356,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>41</v>
       </c>
@@ -23139,7 +23409,7 @@
         <v>46310</v>
       </c>
       <c r="T149" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U149" s="2" t="s">
         <v>108</v>
@@ -23193,7 +23463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>41</v>
       </c>
@@ -23246,7 +23516,7 @@
         <v>46188</v>
       </c>
       <c r="T150" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U150" s="2" t="s">
         <v>109</v>
@@ -23300,7 +23570,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>41</v>
       </c>
@@ -23353,7 +23623,7 @@
         <v>46188</v>
       </c>
       <c r="T151" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>109</v>
@@ -23407,7 +23677,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>41</v>
       </c>
@@ -23460,7 +23730,7 @@
         <v>46288</v>
       </c>
       <c r="T152" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>109</v>
@@ -23514,7 +23784,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>41</v>
       </c>
@@ -23567,7 +23837,7 @@
         <v>46288</v>
       </c>
       <c r="T153" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>109</v>
@@ -23621,7 +23891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>41</v>
       </c>
@@ -23674,7 +23944,7 @@
         <v>46142</v>
       </c>
       <c r="T154" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>1504</v>
@@ -23731,7 +24001,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>41</v>
       </c>
@@ -23784,7 +24054,7 @@
         <v>46142</v>
       </c>
       <c r="T155" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U155" s="2" t="s">
         <v>1108</v>
@@ -23841,7 +24111,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>41</v>
       </c>
@@ -23894,7 +24164,7 @@
         <v>46295</v>
       </c>
       <c r="T156" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U156" s="2" t="s">
         <v>1527</v>
@@ -23945,7 +24215,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>41</v>
       </c>
@@ -23998,7 +24268,7 @@
         <v>46280</v>
       </c>
       <c r="T157" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U157" s="2" t="s">
         <v>1527</v>
@@ -24049,7 +24319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>41</v>
       </c>
@@ -24102,7 +24372,7 @@
         <v>46164</v>
       </c>
       <c r="T158" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U158" s="2" t="s">
         <v>432</v>
@@ -24156,7 +24426,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>41</v>
       </c>
@@ -24209,7 +24479,7 @@
         <v>46192</v>
       </c>
       <c r="T159" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U159" s="2" t="s">
         <v>432</v>
@@ -24263,7 +24533,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>41</v>
       </c>
@@ -24316,7 +24586,7 @@
         <v>46164</v>
       </c>
       <c r="T160" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U160" s="2" t="s">
         <v>432</v>
@@ -24370,7 +24640,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>41</v>
       </c>
@@ -24423,7 +24693,7 @@
         <v>46164</v>
       </c>
       <c r="T161" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U161" s="2" t="s">
         <v>432</v>
@@ -24477,7 +24747,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>41</v>
       </c>
@@ -24530,7 +24800,7 @@
         <v>46493</v>
       </c>
       <c r="T162" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U162" s="2" t="s">
         <v>154</v>
@@ -24587,7 +24857,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>41</v>
       </c>
@@ -24640,7 +24910,7 @@
         <v>46052</v>
       </c>
       <c r="T163" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U163" s="2" t="s">
         <v>54</v>
@@ -24697,7 +24967,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>41</v>
       </c>
@@ -24750,7 +25020,7 @@
         <v>46142</v>
       </c>
       <c r="T164" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U164" s="2" t="s">
         <v>54</v>
@@ -24807,7 +25077,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>41</v>
       </c>
@@ -24860,7 +25130,7 @@
         <v>46234</v>
       </c>
       <c r="T165" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>54</v>
@@ -24917,7 +25187,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>41</v>
       </c>
@@ -24970,7 +25240,7 @@
         <v>46115</v>
       </c>
       <c r="T166" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U166" s="2" t="s">
         <v>54</v>
@@ -25027,7 +25297,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>41</v>
       </c>
@@ -25080,7 +25350,7 @@
         <v>46127</v>
       </c>
       <c r="T167" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U167" s="2" t="s">
         <v>54</v>
@@ -25137,7 +25407,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>41</v>
       </c>
@@ -25190,7 +25460,7 @@
         <v>46127</v>
       </c>
       <c r="T168" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U168" s="2" t="s">
         <v>54</v>
@@ -25247,7 +25517,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>41</v>
       </c>
@@ -25300,7 +25570,7 @@
         <v>46101</v>
       </c>
       <c r="T169" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U169" s="2" t="s">
         <v>54</v>
@@ -25357,7 +25627,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>41</v>
       </c>
@@ -25410,7 +25680,7 @@
         <v>46127</v>
       </c>
       <c r="T170" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U170" s="2" t="s">
         <v>54</v>
@@ -25467,7 +25737,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>41</v>
       </c>
@@ -25520,7 +25790,7 @@
         <v>46112</v>
       </c>
       <c r="T171" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U171" s="2" t="s">
         <v>1644</v>
@@ -25574,7 +25844,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>41</v>
       </c>
@@ -25627,7 +25897,7 @@
         <v>46112</v>
       </c>
       <c r="T172" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U172" s="2" t="s">
         <v>1644</v>
@@ -25681,7 +25951,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>41</v>
       </c>
@@ -25734,7 +26004,7 @@
         <v>46112</v>
       </c>
       <c r="T173" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U173" s="2" t="s">
         <v>1644</v>
@@ -25788,7 +26058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>41</v>
       </c>
@@ -25841,7 +26111,7 @@
         <v>46112</v>
       </c>
       <c r="T174" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>1644</v>
@@ -25895,7 +26165,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>41</v>
       </c>
@@ -25948,7 +26218,7 @@
         <v>46112</v>
       </c>
       <c r="T175" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U175" s="2" t="s">
         <v>1644</v>
@@ -26002,7 +26272,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>41</v>
       </c>
@@ -26055,7 +26325,7 @@
         <v>46112</v>
       </c>
       <c r="T176" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U176" s="2" t="s">
         <v>1678</v>
@@ -26109,7 +26379,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>41</v>
       </c>
@@ -26162,7 +26432,7 @@
         <v>46112</v>
       </c>
       <c r="T177" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U177" s="2" t="s">
         <v>1678</v>
@@ -26216,7 +26486,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>41</v>
       </c>
@@ -26269,7 +26539,7 @@
         <v>46053</v>
       </c>
       <c r="T178" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U178" s="2" t="s">
         <v>1644</v>
@@ -26323,7 +26593,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>41</v>
       </c>
@@ -26376,7 +26646,7 @@
         <v>46053</v>
       </c>
       <c r="T179" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U179" s="2" t="s">
         <v>1644</v>
@@ -26430,7 +26700,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>41</v>
       </c>
@@ -26486,7 +26756,7 @@
         <v>46010</v>
       </c>
       <c r="T180" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U180" s="2" t="s">
         <v>1644</v>
@@ -26540,7 +26810,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>41</v>
       </c>
@@ -26596,7 +26866,7 @@
         <v>46024</v>
       </c>
       <c r="T181" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U181" s="2" t="s">
         <v>1644</v>
@@ -26650,7 +26920,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>41</v>
       </c>
@@ -26706,7 +26976,7 @@
         <v>46010</v>
       </c>
       <c r="T182" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U182" s="2" t="s">
         <v>1644</v>
@@ -26760,7 +27030,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>41</v>
       </c>
@@ -26813,7 +27083,7 @@
         <v>46053</v>
       </c>
       <c r="T183" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U183" s="2" t="s">
         <v>1644</v>
@@ -26867,7 +27137,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>41</v>
       </c>
@@ -26920,7 +27190,7 @@
         <v>46112</v>
       </c>
       <c r="T184" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U184" s="2" t="s">
         <v>1644</v>
@@ -26974,7 +27244,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>41</v>
       </c>
@@ -27027,7 +27297,7 @@
         <v>46112</v>
       </c>
       <c r="T185" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U185" s="2" t="s">
         <v>1644</v>
@@ -27081,7 +27351,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>41</v>
       </c>
@@ -27134,7 +27404,7 @@
         <v>46112</v>
       </c>
       <c r="T186" s="2">
-        <v>0000</v>
+        <v>0</v>
       </c>
       <c r="U186" s="2" t="s">
         <v>1644</v>
@@ -27188,8 +27458,243 @@
         <v>284</v>
       </c>
     </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O187" s="3">
+        <v>45471</v>
+      </c>
+      <c r="P187" s="3">
+        <v>401404</v>
+      </c>
+      <c r="Q187" s="3">
+        <v>401404</v>
+      </c>
+      <c r="R187" s="3">
+        <v>45476</v>
+      </c>
+      <c r="S187" s="3">
+        <v>45471</v>
+      </c>
+      <c r="T187" s="2">
+        <v>0</v>
+      </c>
+      <c r="U187" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V187" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W187" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X187" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Y187" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Z187" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AA187" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB187" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC187" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD187" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="AE187" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="AF187" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AG187" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AH187" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AI187" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AJ187" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK187" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL187" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="O188" s="3">
+        <v>45631</v>
+      </c>
+      <c r="P188" s="3">
+        <v>401404</v>
+      </c>
+      <c r="Q188" s="3">
+        <v>401404</v>
+      </c>
+      <c r="R188" s="3">
+        <v>45632</v>
+      </c>
+      <c r="S188" s="3">
+        <v>45631</v>
+      </c>
+      <c r="T188" s="2">
+        <v>0</v>
+      </c>
+      <c r="U188" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="V188" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="W188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA188" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE188" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF188" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AG188" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AH188" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AI188" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ188" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AK188" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL188" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO186"/>
+  <autoFilter ref="A1:AO188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>